--- a/2nd term project/SLR table.xlsx
+++ b/2nd term project/SLR table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\master\Desktop\univ\대학 과제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32BB85D2-AFCE-4633-866C-C03773090B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3871E592-1934-4203-A27C-ACABD9EEA216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2004" yWindow="1932" windowWidth="19740" windowHeight="10752" activeTab="2" xr2:uid="{45BC127C-883D-422A-80E1-05F054A0AF44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{45BC127C-883D-422A-80E1-05F054A0AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="First Follow table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="345">
   <si>
     <t>FIRST / FOLLOW table</t>
   </si>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <r>
       <t>s</t>
     </r>
     <r>
@@ -229,7 +247,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
+      <t>8</t>
     </r>
   </si>
   <si>
@@ -243,11 +261,312 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>5</t>
     </r>
   </si>
   <si>
     <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>34</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>r</t>
     </r>
     <r>
@@ -258,7 +577,22 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
     </r>
   </si>
   <si>
@@ -272,11 +606,83 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <t>acc</t>
+      <t>44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>18</t>
+    </r>
   </si>
   <si>
     <r>
@@ -289,7 +695,22 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>8</t>
+      <t>47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
     </r>
   </si>
   <si>
@@ -303,7 +724,49 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>9</t>
+      <t>48</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>51</t>
     </r>
   </si>
   <si>
@@ -318,7 +781,97 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>1</t>
+      <t>25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
     </r>
   </si>
   <si>
@@ -332,7 +885,21 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>10</t>
+      <t>62</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>63</t>
     </r>
   </si>
   <si>
@@ -347,7 +914,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>3</t>
+      <t>14</t>
     </r>
   </si>
   <si>
@@ -361,7 +928,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>12</t>
+      <t>64</t>
     </r>
   </si>
   <si>
@@ -376,8 +943,1345 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>6</t>
-    </r>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <t>Goto</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>Closure</t>
+  </si>
+  <si>
+    <t>goto(0, VDECL)</t>
+  </si>
+  <si>
+    <t>{CODE -&gt; VDECL.CODE}</t>
+  </si>
+  <si>
+    <r>
+      <t>{CODE -&gt; VDECL.CODE; CODE -&gt; .VDECL CODE; CODE -&gt; .FDECL CODE; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; VDECL -&gt; .vtype id semi; FDECL -&gt; .vtype id lparen ARG rparen BLOCK RETURN rbrace}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(0, vtype)</t>
+  </si>
+  <si>
+    <t>{VDECL -&gt; vtype.id semi}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE -&gt; VDECL CODE.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{CODE -&gt; FDECL.CODE}</t>
+  </si>
+  <si>
+    <r>
+      <t>{CODE -&gt; FDECL.CODE; CODE -&gt; .VDECL CODE; CODE -&gt; .FDECL CODE; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; VDECL -&gt; .vtype id semi; FDECL -&gt; .vtype id lparen ARG rparen BLOCK RETURN rbrace}</t>
+    </r>
+  </si>
+  <si>
+    <t>{VDECL -&gt; vtype.id semi; FDECL -&gt; vtype.id lparen ARG rparen BLOCK RETURN rbrace}</t>
+  </si>
+  <si>
+    <t>{VDECL -&gt; vtype id.semi}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE -&gt; FDECL CODE.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{VDECL -&gt; vtype id.semi; FDECL -&gt; vtype id.lparen ARG rparen BLOCK RETURN rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>VDECL -&gt; vtype id semi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen.ARG rparen BLOCK RETURN rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{FDECL -&gt; vtype id lparen.ARG rparen BLOCK RETURN rbrace; ARG -&gt; .vtype id MOREARGS; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>ARG -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen ARG.rparen BLOCK RETURN rbrace}</t>
+  </si>
+  <si>
+    <t>{ARG -&gt; vtype.id MOREARGS}</t>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen ARG rparen.BLOCK RETURN rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{FDECL -&gt; vtype id lparen ARG rparen.BLOCK RETURN rbrace; BLOCK -&gt; .STMT BLOCK; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(12, id)</t>
+  </si>
+  <si>
+    <t>{ARG -&gt; vtype id.MOREARGS}</t>
+  </si>
+  <si>
+    <r>
+      <t>{ARG -&gt; vtype id.MOREARGS; MOREARGS -&gt; .comma vtype id MOREARGS; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOREARGS -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen ARG rparen BLOCK.RETURN rbrace}</t>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen ARG rparen BLOCK.RETURN rbrace; RETURN -&gt; .return FACTOR semi}</t>
+  </si>
+  <si>
+    <t>{BLOCK -&gt; STMT.BLOCK}</t>
+  </si>
+  <si>
+    <r>
+      <t>{BLOCK -&gt; STMT.BLOCK; BLOCK -&gt; .STMT BLOCK; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>STMT -&gt; VDECL.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; id.assign RHS semi}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if.lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while.lparen COND rparen lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>ARG -&gt; vtype id MOREARGS.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{MOREARGS -&gt; comma.vtype id MOREARGS}</t>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen ARG rparen BLOCK RETURN.rbrace}</t>
+  </si>
+  <si>
+    <t>{RETURN -&gt; return.FACTOR semi}</t>
+  </si>
+  <si>
+    <t>{RETURN -&gt; return.FACTOR semi; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; STMT BLOCK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; id assign.RHS semi}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; id assign.RHS semi; RHS -&gt; .EXPR; RHS -&gt; .literal; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>goto(19, lparen)</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen.COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen.COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; COND -&gt; .FACTOR comp FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen.COND rparen lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen.COND rparen lbrace BLOCK rbrace; COND -&gt; .FACTOR comp FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>goto(22, vtype)</t>
+  </si>
+  <si>
+    <t>{MOREARGS -&gt; comma vtype.id MOREARGS}</t>
+  </si>
+  <si>
+    <t>goto(23, rbrace)</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>FDECL -&gt; vtype id lparen ARG rparen BLOCK RETURN rbrace.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(24, FACTOR)</t>
+  </si>
+  <si>
+    <t>{RETURN -&gt; return FACTOR.semi}</t>
+  </si>
+  <si>
+    <t>goto(24, lparen)</t>
+  </si>
+  <si>
+    <t>{FACTOR -&gt; lparen.EXPR rparen}</t>
+  </si>
+  <si>
+    <t>{FACTOR -&gt; lparen.EXPR rparen; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>goto(24, id)</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>FACTOR -&gt; id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(24, num)</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>FACTOR -&gt; num.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(26, RHS)</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; id assign RHS.semi}</t>
+  </si>
+  <si>
+    <t>goto(26, EXPR)</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>RHS -&gt; EXPR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(26, literal)</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>RHS -&gt; literal.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(26, TERM)</t>
+  </si>
+  <si>
+    <r>
+      <t>{EXPR -&gt; TERM.addsub EXPR; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>EXPR -&gt; TERM.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(26, FACTOR)</t>
+  </si>
+  <si>
+    <r>
+      <t>{TERM -&gt; FACTOR.multdiv TERM; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>TERM -&gt; FACTOR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(26, lparen)</t>
+  </si>
+  <si>
+    <t>goto(26, id)</t>
+  </si>
+  <si>
+    <t>goto(26, num)</t>
+  </si>
+  <si>
+    <t>goto(27, COND)</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND.rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>goto(27, FACTOR)</t>
+  </si>
+  <si>
+    <t>{COND -&gt; FACTOR.comp FACTOR}</t>
+  </si>
+  <si>
+    <t>goto(27, lparen)</t>
+  </si>
+  <si>
+    <t>goto(27, id)</t>
+  </si>
+  <si>
+    <t>goto(27, num)</t>
+  </si>
+  <si>
+    <t>goto(28, COND)</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen COND.rparen lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>goto(28, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(28, lparen)</t>
+  </si>
+  <si>
+    <t>goto(28, id)</t>
+  </si>
+  <si>
+    <t>goto(28, num)</t>
+  </si>
+  <si>
+    <t>{MOREARGS -&gt; comma vtype id.MOREARGS}</t>
+  </si>
+  <si>
+    <r>
+      <t>{MOREARGS -&gt; comma vtype id.MOREARGS; MOREARGS -&gt; .comma vtype id MOREARGS; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOREARGS -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>RETURN -&gt; return FACTOR semi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{FACTOR -&gt; lparen EXPR.rparen}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>STMT -&gt; id assign RHS semi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{EXPR -&gt; TERM addsub.EXPR}</t>
+  </si>
+  <si>
+    <t>{EXPR -&gt; TERM addsub.EXPR; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>{TERM -&gt; FACTOR multdiv.TERM}</t>
+  </si>
+  <si>
+    <t>{TERM -&gt; FACTOR multdiv.TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen.lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{COND -&gt; FACTOR comp.FACTOR}</t>
+  </si>
+  <si>
+    <t>{COND -&gt; FACTOR comp.FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen COND rparen.lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOREARGS -&gt; comma vtype id MOREARGS.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>FACTOR -&gt; lparen EXPR rparen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>EXPR -&gt; TERM addsub EXPR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(48, TERM)</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>TERM -&gt; FACTOR multdiv TERM.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(48, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(48, lparen)</t>
+  </si>
+  <si>
+    <t>goto(48, id)</t>
+  </si>
+  <si>
+    <t>goto(48, num)</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace.BLOCK rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{STMT -&gt; if lparen COND rparen lbrace.BLOCK rbrace else lbrace BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>COND -&gt; FACTOR comp FACTOR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen COND rparen lbrace.BLOCK rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{STMT -&gt; while lparen COND rparen lbrace.BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK.rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen COND rparen lbrace BLOCK.rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace.else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>goto(60, rbrace)</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>STMT -&gt; while lparen COND rparen lbrace BLOCK rbrace.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else.lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace.BLOCK rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace.BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK.rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>S'</t>
+  </si>
+  <si>
+    <t>SLR closure table</t>
+  </si>
+  <si>
+    <t>{S' -&gt; .CODE}</t>
+  </si>
+  <si>
+    <r>
+      <t>{S' -&gt; .CODE; CODE -&gt; .VDECL CODE; CODE -&gt; .FDECL CODE; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; VDECL -&gt; .vtype id semi; FDECL -&gt; .vtype id lparen ARG rparen BLOCK RETURN rbrace}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(0, CODE)</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>S' -&gt; CODE.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(0, FDECL)</t>
+  </si>
+  <si>
+    <t>goto(2, CODE)</t>
+  </si>
+  <si>
+    <t>goto(2, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(2, FDECL)</t>
+  </si>
+  <si>
+    <t>goto(2, vtype)</t>
+  </si>
+  <si>
+    <t>goto(3, CODE)</t>
+  </si>
+  <si>
+    <t>goto(3, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(3, FDECL)</t>
+  </si>
+  <si>
+    <t>goto(3, vtype)</t>
+  </si>
+  <si>
+    <t>goto(4, id)</t>
+  </si>
+  <si>
+    <t>goto(7, semi)</t>
+  </si>
+  <si>
+    <t>goto(7, lparen)</t>
+  </si>
+  <si>
+    <t>goto(9, ARG)</t>
+  </si>
+  <si>
+    <t>goto(9, vtype)</t>
+  </si>
+  <si>
+    <t>goto(10, rparen)</t>
+  </si>
+  <si>
+    <t>goto(11, id)</t>
+  </si>
+  <si>
+    <t>goto(12, BLOCK)</t>
+  </si>
+  <si>
+    <t>goto(12, STMT)</t>
+  </si>
+  <si>
+    <t>goto(12, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(12, if)</t>
+  </si>
+  <si>
+    <t>goto(12, while)</t>
+  </si>
+  <si>
+    <t>goto(12, vtype)</t>
+  </si>
+  <si>
+    <t>goto(13, MOREARGS)</t>
+  </si>
+  <si>
+    <t>goto(13, comma)</t>
+  </si>
+  <si>
+    <t>goto(14, RETURN)</t>
+  </si>
+  <si>
+    <t>goto(14, return)</t>
+  </si>
+  <si>
+    <t>goto(15, BLOCK)</t>
+  </si>
+  <si>
+    <t>goto(15, STMT)</t>
+  </si>
+  <si>
+    <t>goto(15, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(15, id)</t>
+  </si>
+  <si>
+    <t>goto(15, if)</t>
+  </si>
+  <si>
+    <t>goto(15, while)</t>
+  </si>
+  <si>
+    <t>goto(15, vtype)</t>
+  </si>
+  <si>
+    <t>goto(17, assign)</t>
+  </si>
+  <si>
+    <t>goto(18, lparen)</t>
+  </si>
+  <si>
+    <t>goto(20, id)</t>
+  </si>
+  <si>
+    <t>goto(29, semi)</t>
+  </si>
+  <si>
+    <t>goto(30, id)</t>
+  </si>
+  <si>
+    <t>goto(32, semi)</t>
+  </si>
+  <si>
+    <t>goto(33, EXPR)</t>
+  </si>
+  <si>
+    <t>goto(33, TERM)</t>
+  </si>
+  <si>
+    <t>goto(33, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(33, lparen)</t>
+  </si>
+  <si>
+    <t>goto(33, id)</t>
+  </si>
+  <si>
+    <t>goto(33, num)</t>
+  </si>
+  <si>
+    <t>goto(36, semi)</t>
+  </si>
+  <si>
+    <t>goto(39, addsub)</t>
+  </si>
+  <si>
+    <t>goto(40, multdiv)</t>
+  </si>
+  <si>
+    <t>goto(41, rparen)</t>
+  </si>
+  <si>
+    <t>goto(42, comp)</t>
+  </si>
+  <si>
+    <t>goto(43, rparen)</t>
+  </si>
+  <si>
+    <t>goto(44, MOREARGS)</t>
+  </si>
+  <si>
+    <t>goto(44, comma)</t>
+  </si>
+  <si>
+    <t>goto(46, rparen)</t>
+  </si>
+  <si>
+    <t>goto(48, EXPR)</t>
+  </si>
+  <si>
+    <t>goto(49, TERM)</t>
+  </si>
+  <si>
+    <t>goto(49, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(49, lparen)</t>
+  </si>
+  <si>
+    <t>goto(49, id)</t>
+  </si>
+  <si>
+    <t>goto(49, num)</t>
+  </si>
+  <si>
+    <t>goto(50, lbrace)</t>
+  </si>
+  <si>
+    <t>goto(51, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(51, lparen)</t>
+  </si>
+  <si>
+    <t>goto(51, id)</t>
+  </si>
+  <si>
+    <t>goto(51, num)</t>
+  </si>
+  <si>
+    <t>goto(52, lbrace)</t>
+  </si>
+  <si>
+    <t>goto(57, BLOCK)</t>
+  </si>
+  <si>
+    <t>goto(57, STMT)</t>
+  </si>
+  <si>
+    <t>goto(57, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(57, id)</t>
+  </si>
+  <si>
+    <t>goto(57, if)</t>
+  </si>
+  <si>
+    <t>goto(57, while)</t>
+  </si>
+  <si>
+    <t>goto(57, vtype)</t>
+  </si>
+  <si>
+    <t>goto(59, BLOCK)</t>
+  </si>
+  <si>
+    <t>goto(59, STMT)</t>
+  </si>
+  <si>
+    <t>goto(59, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(59, id)</t>
+  </si>
+  <si>
+    <t>goto(59, if)</t>
+  </si>
+  <si>
+    <t>goto(59, while)</t>
+  </si>
+  <si>
+    <t>goto(59, vtype)</t>
+  </si>
+  <si>
+    <t>goto(61, rbrace)</t>
+  </si>
+  <si>
+    <t>goto(62, else)</t>
+  </si>
+  <si>
+    <t>goto(64, lbrace)</t>
+  </si>
+  <si>
+    <t>goto(65, BLOCK)</t>
+  </si>
+  <si>
+    <t>goto(65, STMT)</t>
+  </si>
+  <si>
+    <t>goto(65, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(65, id)</t>
+  </si>
+  <si>
+    <t>goto(65, if)</t>
+  </si>
+  <si>
+    <t>goto(65, while)</t>
+  </si>
+  <si>
+    <t>goto(65, vtype)</t>
+  </si>
+  <si>
+    <t>goto(66, rbrace)</t>
   </si>
   <si>
     <r>
@@ -390,7 +2294,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>13</t>
+      <t>4</t>
     </r>
   </si>
   <si>
@@ -404,7 +2308,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>14</t>
+      <t>7</t>
     </r>
   </si>
   <si>
@@ -418,7 +2322,91 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>18</t>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>38</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>52</t>
     </r>
   </si>
   <si>
@@ -433,7 +2421,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>10</t>
+      <t>26</t>
     </r>
   </si>
   <si>
@@ -447,7 +2435,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>19</t>
+      <t>54</t>
     </r>
   </si>
   <si>
@@ -461,22 +2449,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>8</t>
+      <t>57</t>
     </r>
   </si>
   <si>
@@ -490,7 +2463,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>22</t>
+      <t>59</t>
     </r>
   </si>
   <si>
@@ -504,22 +2477,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>11</t>
+      <t>65</t>
     </r>
   </si>
   <si>
@@ -533,1900 +2491,8 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>27</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>37</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>43</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>44</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>46</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>47</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>48</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>49</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>51</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>53</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>56</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>58</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>17</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>61</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>62</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>63</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>13</t>
-    </r>
-  </si>
-  <si>
-    <t>Goto</t>
-  </si>
-  <si>
-    <t>Kernel</t>
-  </si>
-  <si>
-    <t>Closure</t>
-  </si>
-  <si>
-    <t>{CODE -&gt; .VDECL CODE}</t>
-  </si>
-  <si>
-    <t>{CODE -&gt; .VDECL CODE; VDECL -&gt; .vtype id semi}</t>
-  </si>
-  <si>
-    <t>goto(0, VDECL)</t>
-  </si>
-  <si>
-    <t>{CODE -&gt; VDECL.CODE}</t>
-  </si>
-  <si>
-    <r>
-      <t>{CODE -&gt; VDECL.CODE; CODE -&gt; .VDECL CODE; CODE -&gt; .FDECL CODE; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>CODE -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; VDECL -&gt; .vtype id semi; FDECL -&gt; .vtype id lparen ARG rparen BLOCK RETURN rbrace}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(0, vtype)</t>
-  </si>
-  <si>
-    <t>{VDECL -&gt; vtype.id semi}</t>
-  </si>
-  <si>
-    <t>goto(1, CODE)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>CODE -&gt; VDECL CODE.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(1, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(1, FDECL)</t>
-  </si>
-  <si>
-    <t>{CODE -&gt; FDECL.CODE}</t>
-  </si>
-  <si>
-    <r>
-      <t>{CODE -&gt; FDECL.CODE; CODE -&gt; .VDECL CODE; CODE -&gt; .FDECL CODE; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>CODE -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; VDECL -&gt; .vtype id semi; FDECL -&gt; .vtype id lparen ARG rparen BLOCK RETURN rbrace}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(1, vtype)</t>
-  </si>
-  <si>
-    <t>{VDECL -&gt; vtype.id semi; FDECL -&gt; vtype.id lparen ARG rparen BLOCK RETURN rbrace}</t>
-  </si>
-  <si>
-    <t>goto(2, id)</t>
-  </si>
-  <si>
-    <t>{VDECL -&gt; vtype id.semi}</t>
-  </si>
-  <si>
-    <t>goto(4, CODE)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>CODE -&gt; FDECL CODE.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(4, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(4, FDECL)</t>
-  </si>
-  <si>
-    <t>goto(4, vtype)</t>
-  </si>
-  <si>
-    <t>goto(5, id)</t>
-  </si>
-  <si>
-    <t>{VDECL -&gt; vtype id.semi; FDECL -&gt; vtype id.lparen ARG rparen BLOCK RETURN rbrace}</t>
-  </si>
-  <si>
-    <t>goto(6, semi)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>VDECL -&gt; vtype id semi.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(8, semi)</t>
-  </si>
-  <si>
-    <t>goto(8, lparen)</t>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen.ARG rparen BLOCK RETURN rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{FDECL -&gt; vtype id lparen.ARG rparen BLOCK RETURN rbrace; ARG -&gt; .vtype id MOREARGS; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>ARG -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(10, ARG)</t>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen ARG.rparen BLOCK RETURN rbrace}</t>
-  </si>
-  <si>
-    <t>goto(10, vtype)</t>
-  </si>
-  <si>
-    <t>{ARG -&gt; vtype.id MOREARGS}</t>
-  </si>
-  <si>
-    <t>goto(11, rparen)</t>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen ARG rparen.BLOCK RETURN rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{FDECL -&gt; vtype id lparen ARG rparen.BLOCK RETURN rbrace; BLOCK -&gt; .STMT BLOCK; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(12, id)</t>
-  </si>
-  <si>
-    <t>{ARG -&gt; vtype id.MOREARGS}</t>
-  </si>
-  <si>
-    <r>
-      <t>{ARG -&gt; vtype id.MOREARGS; MOREARGS -&gt; .comma vtype id MOREARGS; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>MOREARGS -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(13, BLOCK)</t>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen ARG rparen BLOCK.RETURN rbrace}</t>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen ARG rparen BLOCK.RETURN rbrace; RETURN -&gt; .return FACTOR semi}</t>
-  </si>
-  <si>
-    <t>goto(13, STMT)</t>
-  </si>
-  <si>
-    <t>{BLOCK -&gt; STMT.BLOCK}</t>
-  </si>
-  <si>
-    <r>
-      <t>{BLOCK -&gt; STMT.BLOCK; BLOCK -&gt; .STMT BLOCK; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(13, VDECL)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>STMT -&gt; VDECL.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(13, id)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; id.assign RHS semi}</t>
-  </si>
-  <si>
-    <t>goto(13, if)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if.lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(13, while)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while.lparen COND rparen lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(13, vtype)</t>
-  </si>
-  <si>
-    <t>goto(14, MOREARGS)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>ARG -&gt; vtype id MOREARGS.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(14, comma)</t>
-  </si>
-  <si>
-    <t>{MOREARGS -&gt; comma.vtype id MOREARGS}</t>
-  </si>
-  <si>
-    <t>goto(15, RETURN)</t>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen ARG rparen BLOCK RETURN.rbrace}</t>
-  </si>
-  <si>
-    <t>goto(15, return)</t>
-  </si>
-  <si>
-    <t>{RETURN -&gt; return.FACTOR semi}</t>
-  </si>
-  <si>
-    <t>{RETURN -&gt; return.FACTOR semi; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>goto(16, BLOCK)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; STMT BLOCK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(16, STMT)</t>
-  </si>
-  <si>
-    <t>goto(16, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(16, id)</t>
-  </si>
-  <si>
-    <t>goto(16, if)</t>
-  </si>
-  <si>
-    <t>goto(16, while)</t>
-  </si>
-  <si>
-    <t>goto(16, vtype)</t>
-  </si>
-  <si>
-    <t>goto(18, assign)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; id assign.RHS semi}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; id assign.RHS semi; RHS -&gt; .EXPR; RHS -&gt; .literal; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>goto(19, lparen)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen.COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen.COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; COND -&gt; .FACTOR comp FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>goto(20, lparen)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen.COND rparen lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen.COND rparen lbrace BLOCK rbrace; COND -&gt; .FACTOR comp FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>goto(22, vtype)</t>
-  </si>
-  <si>
-    <t>{MOREARGS -&gt; comma vtype.id MOREARGS}</t>
-  </si>
-  <si>
-    <t>goto(23, rbrace)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>FDECL -&gt; vtype id lparen ARG rparen BLOCK RETURN rbrace.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(24, FACTOR)</t>
-  </si>
-  <si>
-    <t>{RETURN -&gt; return FACTOR.semi}</t>
-  </si>
-  <si>
-    <t>goto(24, lparen)</t>
-  </si>
-  <si>
-    <t>{FACTOR -&gt; lparen.EXPR rparen}</t>
-  </si>
-  <si>
-    <t>{FACTOR -&gt; lparen.EXPR rparen; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>goto(24, id)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>FACTOR -&gt; id.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(24, num)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>FACTOR -&gt; num.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(26, RHS)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; id assign RHS.semi}</t>
-  </si>
-  <si>
-    <t>goto(26, EXPR)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>RHS -&gt; EXPR.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(26, literal)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>RHS -&gt; literal.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(26, TERM)</t>
-  </si>
-  <si>
-    <r>
-      <t>{EXPR -&gt; TERM.addsub EXPR; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>EXPR -&gt; TERM.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(26, FACTOR)</t>
-  </si>
-  <si>
-    <r>
-      <t>{TERM -&gt; FACTOR.multdiv TERM; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>TERM -&gt; FACTOR.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(26, lparen)</t>
-  </si>
-  <si>
-    <t>goto(26, id)</t>
-  </si>
-  <si>
-    <t>goto(26, num)</t>
-  </si>
-  <si>
-    <t>goto(27, COND)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND.rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(27, FACTOR)</t>
-  </si>
-  <si>
-    <t>{COND -&gt; FACTOR.comp FACTOR}</t>
-  </si>
-  <si>
-    <t>goto(27, lparen)</t>
-  </si>
-  <si>
-    <t>goto(27, id)</t>
-  </si>
-  <si>
-    <t>goto(27, num)</t>
-  </si>
-  <si>
-    <t>goto(28, COND)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen COND.rparen lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(28, FACTOR)</t>
-  </si>
-  <si>
-    <t>goto(28, lparen)</t>
-  </si>
-  <si>
-    <t>goto(28, id)</t>
-  </si>
-  <si>
-    <t>goto(28, num)</t>
-  </si>
-  <si>
-    <t>goto(29, id)</t>
-  </si>
-  <si>
-    <t>{MOREARGS -&gt; comma vtype id.MOREARGS}</t>
-  </si>
-  <si>
-    <r>
-      <t>{MOREARGS -&gt; comma vtype id.MOREARGS; MOREARGS -&gt; .comma vtype id MOREARGS; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>MOREARGS -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(31, semi)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>RETURN -&gt; return FACTOR semi.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(32, EXPR)</t>
-  </si>
-  <si>
-    <t>{FACTOR -&gt; lparen EXPR.rparen}</t>
-  </si>
-  <si>
-    <t>goto(32, TERM)</t>
-  </si>
-  <si>
-    <t>goto(32, FACTOR)</t>
-  </si>
-  <si>
-    <t>goto(32, lparen)</t>
-  </si>
-  <si>
-    <t>goto(32, id)</t>
-  </si>
-  <si>
-    <t>goto(32, num)</t>
-  </si>
-  <si>
-    <t>goto(35, semi)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>STMT -&gt; id assign RHS semi.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(38, addsub)</t>
-  </si>
-  <si>
-    <t>{EXPR -&gt; TERM addsub.EXPR}</t>
-  </si>
-  <si>
-    <t>{EXPR -&gt; TERM addsub.EXPR; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>goto(39, multdiv)</t>
-  </si>
-  <si>
-    <t>{TERM -&gt; FACTOR multdiv.TERM}</t>
-  </si>
-  <si>
-    <t>{TERM -&gt; FACTOR multdiv.TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>goto(40, rparen)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen.lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(41, comp)</t>
-  </si>
-  <si>
-    <t>{COND -&gt; FACTOR comp.FACTOR}</t>
-  </si>
-  <si>
-    <t>{COND -&gt; FACTOR comp.FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>goto(42, rparen)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen COND rparen.lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(43, MOREARGS)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>MOREARGS -&gt; comma vtype id MOREARGS.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(43, comma)</t>
-  </si>
-  <si>
-    <t>goto(45, rparen)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>FACTOR -&gt; lparen EXPR rparen.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(47, EXPR)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>EXPR -&gt; TERM addsub EXPR.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(47, TERM)</t>
-  </si>
-  <si>
-    <t>goto(47, FACTOR)</t>
-  </si>
-  <si>
-    <t>goto(47, lparen)</t>
-  </si>
-  <si>
-    <t>goto(47, id)</t>
-  </si>
-  <si>
-    <t>goto(47, num)</t>
-  </si>
-  <si>
-    <t>goto(48, TERM)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>TERM -&gt; FACTOR multdiv TERM.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(48, FACTOR)</t>
-  </si>
-  <si>
-    <t>goto(48, lparen)</t>
-  </si>
-  <si>
-    <t>goto(48, id)</t>
-  </si>
-  <si>
-    <t>goto(48, num)</t>
-  </si>
-  <si>
-    <t>goto(49, lbrace)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace.BLOCK rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{STMT -&gt; if lparen COND rparen lbrace.BLOCK rbrace else lbrace BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(50, FACTOR)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>COND -&gt; FACTOR comp FACTOR.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(50, lparen)</t>
-  </si>
-  <si>
-    <t>goto(50, id)</t>
-  </si>
-  <si>
-    <t>goto(50, num)</t>
-  </si>
-  <si>
-    <t>goto(51, lbrace)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen COND rparen lbrace.BLOCK rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{STMT -&gt; while lparen COND rparen lbrace.BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(56, BLOCK)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK.rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(56, STMT)</t>
-  </si>
-  <si>
-    <t>goto(56, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(56, id)</t>
-  </si>
-  <si>
-    <t>goto(56, if)</t>
-  </si>
-  <si>
-    <t>goto(56, while)</t>
-  </si>
-  <si>
-    <t>goto(56, vtype)</t>
-  </si>
-  <si>
-    <t>goto(58, BLOCK)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen COND rparen lbrace BLOCK.rbrace}</t>
-  </si>
-  <si>
-    <t>goto(58, STMT)</t>
-  </si>
-  <si>
-    <t>goto(58, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(58, id)</t>
-  </si>
-  <si>
-    <t>goto(58, if)</t>
-  </si>
-  <si>
-    <t>goto(58, while)</t>
-  </si>
-  <si>
-    <t>goto(58, vtype)</t>
-  </si>
-  <si>
-    <t>goto(59, rbrace)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace.else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(60, rbrace)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>STMT -&gt; while lparen COND rparen lbrace BLOCK rbrace.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(61, else)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else.lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(63, lbrace)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace.BLOCK rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace.BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(64, BLOCK)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK.rbrace}</t>
-  </si>
-  <si>
-    <t>goto(64, STMT)</t>
-  </si>
-  <si>
-    <t>goto(64, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(64, id)</t>
-  </si>
-  <si>
-    <t>goto(64, if)</t>
-  </si>
-  <si>
-    <t>goto(64, while)</t>
-  </si>
-  <si>
-    <t>goto(64, vtype)</t>
-  </si>
-  <si>
-    <t>goto(65, rbrace)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>SLR closure table</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>67</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2598,6 +2664,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2606,12 +2678,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2933,10 +2999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14650D5D-9436-42A3-9727-57D41A12F1F4}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2947,11 +3013,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -2966,7 +3032,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -2977,43 +3043,43 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -3021,89 +3087,100 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3119,10 +3196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5EA1F4-4D38-429F-A714-9FE5AF2A8F5B}">
-  <dimension ref="A1:AG70"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3158,82 +3235,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="7"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="5"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="7"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -3295,51 +3372,51 @@
         <v>59</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3358,13 +3435,19 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="U4" s="2"/>
-      <c r="V4" s="6">
+      <c r="V4" s="3">
         <v>1</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="W4" s="3">
+        <v>2</v>
+      </c>
+      <c r="X4" s="3">
+        <v>3</v>
+      </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -3376,12 +3459,10 @@
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3399,18 +3480,12 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U5" s="6">
-        <v>3</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6">
-        <v>4</v>
-      </c>
+      <c r="T5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -3423,13 +3498,13 @@
       <c r="AG5" s="2"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="B6" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3446,11 +3521,19 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="V6" s="3">
+        <v>5</v>
+      </c>
+      <c r="W6" s="3">
+        <v>2</v>
+      </c>
+      <c r="X6" s="3">
+        <v>3</v>
+      </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -3462,10 +3545,12 @@
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3483,13 +3568,19 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="7" t="s">
-        <v>64</v>
+      <c r="T7" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="V7" s="3">
+        <v>6</v>
+      </c>
+      <c r="W7" s="3">
+        <v>2</v>
+      </c>
+      <c r="X7" s="3">
+        <v>3</v>
+      </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -3501,13 +3592,13 @@
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3524,18 +3615,10 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="6">
-        <v>7</v>
-      </c>
-      <c r="V8" s="6">
-        <v>1</v>
-      </c>
-      <c r="W8" s="6">
-        <v>4</v>
-      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -3548,13 +3631,11 @@
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3571,7 +3652,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="T9" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -3587,14 +3670,12 @@
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3610,7 +3691,9 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -3626,13 +3709,17 @@
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -3647,9 +3734,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -3665,32 +3750,42 @@
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -3706,47 +3801,39 @@
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="F13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="3">
+        <v>10</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -3757,17 +3844,15 @@
       <c r="AG13" s="2"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3786,9 +3871,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="6">
-        <v>11</v>
-      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -3800,16 +3883,16 @@
       <c r="AG14" s="2"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -3839,38 +3922,54 @@
       <c r="AG15" s="2"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
+      <c r="W16" s="3">
+        <v>16</v>
+      </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AA16" s="3">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>15</v>
+      </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -3878,53 +3977,41 @@
       <c r="AG16" s="2"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="6">
-        <v>17</v>
-      </c>
+      <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="6">
-        <v>15</v>
-      </c>
-      <c r="AA17" s="6">
-        <v>16</v>
-      </c>
+      <c r="Z17" s="3">
+        <v>21</v>
+      </c>
+      <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
@@ -3933,20 +4020,16 @@
       <c r="AG17" s="2"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -3957,15 +4040,15 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="6">
-        <v>21</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -3976,71 +4059,85 @@
       <c r="AG18" s="2"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
+      <c r="W19" s="3">
+        <v>16</v>
+      </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
+      <c r="AA19" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>15</v>
+      </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="6">
-        <v>23</v>
-      </c>
+      <c r="AG19" s="2"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4048,22 +4145,16 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="6">
-        <v>17</v>
-      </c>
+      <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="6">
-        <v>25</v>
-      </c>
-      <c r="AA20" s="6">
-        <v>16</v>
-      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -4072,39 +4163,29 @@
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="I21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -4121,19 +4202,19 @@
       <c r="AG21" s="2"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -4160,14 +4241,14 @@
       <c r="AG22" s="2"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4199,15 +4280,15 @@
       <c r="AG23" s="2"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -4238,7 +4319,7 @@
       <c r="AG24" s="2"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="2"/>
@@ -4246,7 +4327,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -4277,11 +4358,11 @@
       <c r="AG25" s="2"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4316,7 +4397,7 @@
       <c r="AG26" s="2"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="2"/>
@@ -4325,7 +4406,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>87</v>
+        <v>334</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -4355,16 +4436,16 @@
       <c r="AG27" s="2"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4378,7 +4459,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2" t="s">
-        <v>90</v>
+        <v>335</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -4393,14 +4474,14 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
-      <c r="AE28" s="6">
-        <v>31</v>
-      </c>
-      <c r="AF28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="3">
+        <v>32</v>
+      </c>
       <c r="AG28" s="2"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A29" s="6">
+      <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" s="2"/>
@@ -4409,7 +4490,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -4423,7 +4504,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -4441,16 +4522,16 @@
       <c r="AG29" s="2"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4461,12 +4542,12 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>92</v>
+        <v>336</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
-        <v>90</v>
+        <v>335</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -4478,32 +4559,32 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
-      <c r="AB30" s="6">
-        <v>35</v>
-      </c>
-      <c r="AC30" s="6">
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="3">
         <v>36</v>
       </c>
-      <c r="AD30" s="6">
-        <v>38</v>
-      </c>
-      <c r="AE30" s="6">
+      <c r="AD30" s="3">
+        <v>37</v>
+      </c>
+      <c r="AE30" s="3">
         <v>39</v>
       </c>
-      <c r="AF30" s="2"/>
+      <c r="AF30" s="3">
+        <v>40</v>
+      </c>
       <c r="AG30" s="2"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4517,7 +4598,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2" t="s">
-        <v>90</v>
+        <v>335</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -4532,25 +4613,25 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
-      <c r="AE31" s="6">
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="3">
+        <v>42</v>
+      </c>
+      <c r="AG31" s="3">
         <v>41</v>
       </c>
-      <c r="AF31" s="6">
-        <v>40</v>
-      </c>
-      <c r="AG31" s="2"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4564,7 +4645,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2" t="s">
-        <v>90</v>
+        <v>335</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -4579,23 +4660,23 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="6">
-        <v>41</v>
-      </c>
-      <c r="AF32" s="6">
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="3">
         <v>42</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" s="3">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4627,13 +4708,13 @@
       <c r="AG33" s="2"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -4650,9 +4731,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -4668,14 +4747,14 @@
       <c r="AG34" s="2"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4691,7 +4770,9 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
+      <c r="T35" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -4707,17 +4788,15 @@
       <c r="AG35" s="2"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -4729,9 +4808,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -4743,31 +4820,25 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
-      <c r="AC36" s="6">
-        <v>45</v>
-      </c>
-      <c r="AD36" s="6">
-        <v>38</v>
-      </c>
-      <c r="AE36" s="6">
-        <v>39</v>
-      </c>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A37" s="6">
+      <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="C37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -4776,16 +4847,12 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -4797,23 +4864,29 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
+      <c r="AD37" s="3">
+        <v>46</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>39</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>40</v>
+      </c>
       <c r="AG37" s="2"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -4824,14 +4897,14 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -4850,16 +4923,18 @@
       <c r="AG38" s="2"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A39" s="6">
+      <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -4868,10 +4943,16 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
+      <c r="O39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
+      <c r="R39" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -4889,13 +4970,13 @@
       <c r="AG39" s="2"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -4928,13 +5009,13 @@
       <c r="AG40" s="2"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A41" s="6">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4967,18 +5048,16 @@
       <c r="AG41" s="2"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -4987,9 +5066,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -5010,17 +5087,17 @@
       <c r="AG42" s="2"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A43" s="6">
+      <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -5031,11 +5108,9 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -5055,15 +5130,17 @@
       <c r="AG43" s="2"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A44" s="6">
+      <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -5073,8 +5150,12 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -5094,14 +5175,16 @@
       <c r="AG44" s="2"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A45" s="6">
+      <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -5113,9 +5196,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -5133,16 +5214,14 @@
       <c r="AG45" s="2"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A46" s="6">
+      <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -5154,7 +5233,9 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
+      <c r="R46" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -5172,7 +5253,7 @@
       <c r="AG46" s="2"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A47" s="6">
+      <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" s="2"/>
@@ -5180,12 +5261,10 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -5202,9 +5281,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="6">
-        <v>52</v>
-      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
@@ -5215,18 +5292,20 @@
       <c r="AG47" s="2"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A48" s="6">
+      <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -5244,7 +5323,9 @@
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="Z48" s="3">
+        <v>53</v>
+      </c>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
@@ -5254,17 +5335,17 @@
       <c r="AG48" s="2"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A49" s="6">
+      <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -5293,39 +5374,29 @@
       <c r="AG49" s="2"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A50" s="6">
+      <c r="A50" s="3">
         <v>46</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="F50" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -5342,33 +5413,39 @@
       <c r="AG50" s="2"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A51" s="6">
+      <c r="A51" s="3">
         <v>47</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C51" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="M51" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
+      <c r="S51" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -5378,29 +5455,23 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
-      <c r="AC51" s="6">
-        <v>54</v>
-      </c>
-      <c r="AD51" s="6">
-        <v>38</v>
-      </c>
-      <c r="AE51" s="6">
-        <v>39</v>
-      </c>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A52" s="6">
+      <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -5414,7 +5485,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2" t="s">
-        <v>90</v>
+        <v>335</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -5428,37 +5499,43 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="6">
+      <c r="AD52" s="3">
         <v>55</v>
       </c>
-      <c r="AE52" s="6">
+      <c r="AE52" s="3">
         <v>39</v>
       </c>
-      <c r="AF52" s="2"/>
+      <c r="AF52" s="3">
+        <v>40</v>
+      </c>
       <c r="AG52" s="2"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A53" s="6">
+      <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
+      <c r="Q53" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
@@ -5472,36 +5549,36 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
+      <c r="AE53" s="3">
+        <v>56</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>40</v>
+      </c>
       <c r="AG53" s="2"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A54" s="6">
+      <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="K54" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
-      <c r="Q54" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
@@ -5515,34 +5592,36 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
-      <c r="AE54" s="6">
-        <v>57</v>
-      </c>
+      <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A55" s="6">
+      <c r="A55" s="3">
         <v>51</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
+      <c r="Q55" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
@@ -5557,25 +5636,27 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
+      <c r="AF55" s="3">
+        <v>58</v>
+      </c>
       <c r="AG55" s="2"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A56" s="6">
+      <c r="A56" s="3">
         <v>52</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="K56" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -5600,17 +5681,15 @@
       <c r="AG56" s="2"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A57" s="6">
+      <c r="A57" s="3">
         <v>53</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -5620,16 +5699,10 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
-      <c r="O57" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -5647,17 +5720,17 @@
       <c r="AG57" s="2"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A58" s="6">
+      <c r="A58" s="3">
         <v>54</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -5667,10 +5740,16 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
+      <c r="O58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
+      <c r="R58" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -5688,17 +5767,17 @@
       <c r="AG58" s="2"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A59" s="6">
+      <c r="A59" s="3">
         <v>55</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -5708,9 +5787,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
-      <c r="O59" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -5731,53 +5808,41 @@
       <c r="AG59" s="2"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A60" s="6">
+      <c r="A60" s="3">
         <v>56</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="F60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
-      <c r="V60" s="6">
-        <v>17</v>
-      </c>
+      <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
-      <c r="Z60" s="6">
-        <v>59</v>
-      </c>
-      <c r="AA60" s="6">
-        <v>16</v>
-      </c>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
@@ -5786,38 +5851,54 @@
       <c r="AG60" s="2"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A61" s="6">
+      <c r="A61" s="3">
         <v>57</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
+      <c r="M61" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
+      <c r="S61" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
+      <c r="W61" s="3">
+        <v>16</v>
+      </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
+      <c r="AA61" s="3">
+        <v>60</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>15</v>
+      </c>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
@@ -5825,53 +5906,37 @@
       <c r="AG61" s="2"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A62" s="6">
+      <c r="A62" s="3">
         <v>58</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="F62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
-      <c r="V62" s="6">
-        <v>17</v>
-      </c>
+      <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
-      <c r="Z62" s="6">
-        <v>60</v>
-      </c>
-      <c r="AA62" s="6">
-        <v>16</v>
-      </c>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
@@ -5880,38 +5945,54 @@
       <c r="AG62" s="2"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A63" s="6">
+      <c r="A63" s="3">
         <v>59</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
+      <c r="J63" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
+      <c r="M63" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
+      <c r="S63" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
+      <c r="W63" s="3">
+        <v>16</v>
+      </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
+      <c r="AA63" s="3">
+        <v>61</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>15</v>
+      </c>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
@@ -5919,7 +6000,7 @@
       <c r="AG63" s="2"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A64" s="6">
+      <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64" s="2"/>
@@ -5928,7 +6009,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -5958,7 +6039,7 @@
       <c r="AG64" s="2"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A65" s="6">
+      <c r="A65" s="3">
         <v>61</v>
       </c>
       <c r="B65" s="2"/>
@@ -5966,14 +6047,14 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -5997,39 +6078,29 @@
       <c r="AG65" s="2"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A66" s="6">
+      <c r="A66" s="3">
         <v>62</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="L66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
@@ -6046,29 +6117,39 @@
       <c r="AG66" s="2"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A67" s="6">
+      <c r="A67" s="3">
         <v>63</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="J67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+      <c r="M67" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
+      <c r="S67" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -6085,53 +6166,37 @@
       <c r="AG67" s="2"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A68" s="6">
+      <c r="A68" s="3">
         <v>64</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="L68" s="2"/>
-      <c r="M68" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
-      <c r="V68" s="6">
-        <v>17</v>
-      </c>
+      <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
-      <c r="Z68" s="6">
-        <v>65</v>
-      </c>
-      <c r="AA68" s="6">
-        <v>16</v>
-      </c>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
@@ -6140,38 +6205,54 @@
       <c r="AG68" s="2"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A69" s="6">
+      <c r="A69" s="3">
         <v>65</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
+      <c r="J69" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
+      <c r="M69" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
+      <c r="S69" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
+      <c r="W69" s="3">
+        <v>16</v>
+      </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
+      <c r="AA69" s="3">
+        <v>66</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>15</v>
+      </c>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
@@ -6179,39 +6260,29 @@
       <c r="AG69" s="2"/>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A70" s="6">
+      <c r="A70" s="3">
         <v>66</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>124</v>
+        <v>344</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
@@ -6227,6 +6298,55 @@
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
     </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A71" s="3">
+        <v>67</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:AG1"/>
@@ -6241,9 +6361,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2598F4-E9DE-4D83-B27D-E5412A584D3D}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -6256,1657 +6376,1683 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="6">
+        <v>235</v>
+      </c>
+      <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="6">
+        <v>238</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="6">
+        <v>115</v>
+      </c>
+      <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="6">
+        <v>120</v>
+      </c>
+      <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
+        <v>119</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="6">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="6">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="6">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="6">
-        <v>4</v>
+        <v>115</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>149</v>
+        <v>246</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="6">
-        <v>5</v>
+        <v>120</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="6">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="6">
-        <v>9</v>
+        <v>125</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="6">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="6">
-        <v>10</v>
+        <v>127</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="6">
-        <v>11</v>
+        <v>129</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="6">
-        <v>12</v>
+        <v>130</v>
+      </c>
+      <c r="C20" s="3">
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="6">
-        <v>13</v>
+        <v>131</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="6">
-        <v>14</v>
+        <v>134</v>
+      </c>
+      <c r="C22" s="3">
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="6">
-        <v>15</v>
+        <v>136</v>
+      </c>
+      <c r="C23" s="3">
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="6">
-        <v>16</v>
+        <v>138</v>
+      </c>
+      <c r="C24" s="3">
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="6">
-        <v>17</v>
+        <v>140</v>
+      </c>
+      <c r="C25" s="3">
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="6">
-        <v>18</v>
+        <v>141</v>
+      </c>
+      <c r="C26" s="3">
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="6">
-        <v>19</v>
+        <v>142</v>
+      </c>
+      <c r="C27" s="3">
+        <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="6">
-        <v>20</v>
+        <v>143</v>
+      </c>
+      <c r="C28" s="3">
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="6">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="6">
+        <v>144</v>
+      </c>
+      <c r="C30" s="3">
         <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="6">
+        <v>145</v>
+      </c>
+      <c r="C31" s="3">
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="6">
+        <v>146</v>
+      </c>
+      <c r="C32" s="3">
         <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="6">
+        <v>147</v>
+      </c>
+      <c r="C33" s="3">
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" s="6">
+        <v>149</v>
+      </c>
+      <c r="C34" s="3">
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="6">
-        <v>16</v>
+        <v>138</v>
+      </c>
+      <c r="C35" s="3">
+        <v>15</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="6">
-        <v>17</v>
+        <v>140</v>
+      </c>
+      <c r="C36" s="3">
+        <v>16</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="6">
-        <v>18</v>
+        <v>141</v>
+      </c>
+      <c r="C37" s="3">
+        <v>17</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="6">
-        <v>19</v>
+        <v>142</v>
+      </c>
+      <c r="C38" s="3">
+        <v>18</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C39" s="6">
-        <v>20</v>
+        <v>143</v>
+      </c>
+      <c r="C39" s="3">
+        <v>19</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="6">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="C40" s="3">
+        <v>20</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C41" s="6">
+        <v>150</v>
+      </c>
+      <c r="C41" s="3">
         <v>26</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="6">
+        <v>153</v>
+      </c>
+      <c r="C42" s="3">
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="6">
+        <v>155</v>
+      </c>
+      <c r="C43" s="3">
         <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="6">
+        <v>123</v>
+      </c>
+      <c r="C44" s="3">
         <v>29</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="6">
+        <v>158</v>
+      </c>
+      <c r="C45" s="3">
         <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C46" s="6">
+        <v>160</v>
+      </c>
+      <c r="C46" s="3">
         <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" s="6">
+        <v>162</v>
+      </c>
+      <c r="C47" s="3">
         <v>32</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="6">
+        <v>164</v>
+      </c>
+      <c r="C48" s="3">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C49" s="6">
+        <v>167</v>
+      </c>
+      <c r="C49" s="3">
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" s="6">
+        <v>169</v>
+      </c>
+      <c r="C50" s="3">
         <v>35</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" s="6">
+        <v>171</v>
+      </c>
+      <c r="C51" s="3">
         <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C52" s="6">
+        <v>173</v>
+      </c>
+      <c r="C52" s="3">
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" s="6">
+        <v>175</v>
+      </c>
+      <c r="C53" s="3">
         <v>38</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="6">
+        <v>177</v>
+      </c>
+      <c r="C54" s="3">
         <v>39</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C55" s="6">
-        <v>32</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C55" s="3">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C56" s="6">
+        <v>164</v>
+      </c>
+      <c r="C56" s="3">
         <v>33</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" s="6">
+        <v>167</v>
+      </c>
+      <c r="C57" s="3">
         <v>34</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C58" s="6">
-        <v>40</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C58" s="3">
+        <v>35</v>
+      </c>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C59" s="6">
+        <v>184</v>
+      </c>
+      <c r="C59" s="3">
         <v>41</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C60" s="6">
-        <v>32</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C60" s="3">
+        <v>42</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" s="6">
+        <v>164</v>
+      </c>
+      <c r="C61" s="3">
         <v>33</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C62" s="6">
+        <v>167</v>
+      </c>
+      <c r="C62" s="3">
         <v>34</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C63" s="6">
-        <v>42</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>243</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C63" s="3">
+        <v>35</v>
+      </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C64" s="6">
-        <v>41</v>
-      </c>
-      <c r="D64" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="C64" s="3">
+        <v>43</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" s="6">
-        <v>32</v>
+        <v>186</v>
+      </c>
+      <c r="C65" s="3">
+        <v>42</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" s="6">
+        <v>164</v>
+      </c>
+      <c r="C66" s="3">
         <v>33</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" s="6">
+        <v>167</v>
+      </c>
+      <c r="C67" s="3">
         <v>34</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C68" s="6">
-        <v>43</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>250</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C68" s="3">
+        <v>35</v>
+      </c>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C69" s="6">
-        <v>44</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C69" s="3">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C70" s="6">
-        <v>45</v>
+        <v>196</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C71" s="6">
-        <v>38</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="C71" s="3">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C72" s="6">
-        <v>39</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C72" s="3">
+        <v>46</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C73" s="6">
-        <v>32</v>
+        <v>177</v>
+      </c>
+      <c r="C73" s="3">
+        <v>39</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C74" s="6">
-        <v>33</v>
+        <v>179</v>
+      </c>
+      <c r="C74" s="3">
+        <v>40</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C75" s="6">
-        <v>34</v>
+        <v>164</v>
+      </c>
+      <c r="C75" s="3">
+        <v>33</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C76" s="6">
-        <v>46</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>261</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C76" s="3">
+        <v>34</v>
+      </c>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C77" s="6">
-        <v>47</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>264</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C77" s="3">
+        <v>35</v>
+      </c>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C78" s="6">
-        <v>48</v>
+        <v>200</v>
+      </c>
+      <c r="C78" s="3">
+        <v>47</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C79" s="6">
-        <v>49</v>
+        <v>201</v>
+      </c>
+      <c r="C79" s="3">
+        <v>48</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C80" s="6">
-        <v>50</v>
+        <v>203</v>
+      </c>
+      <c r="C80" s="3">
+        <v>49</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C81" s="6">
-        <v>51</v>
+        <v>205</v>
+      </c>
+      <c r="C81" s="3">
+        <v>50</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C82" s="6">
-        <v>52</v>
+        <v>206</v>
+      </c>
+      <c r="C82" s="3">
+        <v>51</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C83" s="6">
-        <v>22</v>
-      </c>
-      <c r="D83" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="C83" s="3">
+        <v>52</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C84" s="6">
+        <v>209</v>
+      </c>
+      <c r="C84" s="3">
         <v>53</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" s="6">
-        <v>54</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>281</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C85" s="3">
+        <v>22</v>
+      </c>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C86" s="6">
-        <v>38</v>
-      </c>
-      <c r="D86" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="C86" s="3">
+        <v>54</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="6">
-        <v>39</v>
-      </c>
-      <c r="D87" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C87" s="3">
+        <v>55</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C88" s="6">
-        <v>32</v>
+        <v>177</v>
+      </c>
+      <c r="C88" s="3">
+        <v>39</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="6">
-        <v>33</v>
+        <v>179</v>
+      </c>
+      <c r="C89" s="3">
+        <v>40</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C90" s="6">
-        <v>34</v>
+        <v>164</v>
+      </c>
+      <c r="C90" s="3">
+        <v>33</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C91" s="6">
-        <v>55</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>288</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C91" s="3">
+        <v>34</v>
+      </c>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C92" s="6">
-        <v>39</v>
+        <v>169</v>
+      </c>
+      <c r="C92" s="3">
+        <v>35</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C93" s="6">
-        <v>32</v>
-      </c>
-      <c r="D93" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="C93" s="3">
+        <v>56</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C94" s="6">
-        <v>33</v>
+        <v>179</v>
+      </c>
+      <c r="C94" s="3">
+        <v>40</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C95" s="6">
-        <v>34</v>
+        <v>164</v>
+      </c>
+      <c r="C95" s="3">
+        <v>33</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C96" s="6">
-        <v>56</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>295</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C96" s="3">
+        <v>34</v>
+      </c>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C97" s="6">
-        <v>57</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C97" s="3">
+        <v>35</v>
+      </c>
+      <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C98" s="6">
-        <v>32</v>
-      </c>
-      <c r="D98" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="C98" s="3">
+        <v>57</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" s="6">
-        <v>33</v>
-      </c>
-      <c r="D99" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="C99" s="3">
+        <v>58</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C100" s="6">
-        <v>34</v>
+        <v>164</v>
+      </c>
+      <c r="C100" s="3">
+        <v>33</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C101" s="6">
-        <v>58</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C101" s="3">
+        <v>34</v>
+      </c>
+      <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C102" s="6">
-        <v>59</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C102" s="3">
+        <v>35</v>
+      </c>
+      <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="6">
-        <v>16</v>
-      </c>
-      <c r="D103" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="C103" s="3">
+        <v>59</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C104" s="6">
-        <v>17</v>
-      </c>
-      <c r="D104" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="C104" s="3">
+        <v>60</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C105" s="6">
-        <v>18</v>
+        <v>138</v>
+      </c>
+      <c r="C105" s="3">
+        <v>15</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" s="6">
-        <v>19</v>
+        <v>140</v>
+      </c>
+      <c r="C106" s="3">
+        <v>16</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C107" s="6">
-        <v>20</v>
+        <v>141</v>
+      </c>
+      <c r="C107" s="3">
+        <v>17</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C108" s="6">
-        <v>2</v>
+        <v>142</v>
+      </c>
+      <c r="C108" s="3">
+        <v>18</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C109" s="6">
-        <v>60</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C109" s="3">
+        <v>19</v>
+      </c>
+      <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="6">
-        <v>16</v>
+        <v>118</v>
+      </c>
+      <c r="C110" s="3">
+        <v>20</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C111" s="6">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C111" s="3">
+        <v>61</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C112" s="6">
-        <v>18</v>
+        <v>138</v>
+      </c>
+      <c r="C112" s="3">
+        <v>15</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C113" s="6">
-        <v>19</v>
+        <v>140</v>
+      </c>
+      <c r="C113" s="3">
+        <v>16</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C114" s="6">
-        <v>20</v>
+        <v>141</v>
+      </c>
+      <c r="C114" s="3">
+        <v>17</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C115" s="6">
-        <v>2</v>
+        <v>142</v>
+      </c>
+      <c r="C115" s="3">
+        <v>18</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C116" s="6">
-        <v>61</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>321</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C116" s="3">
+        <v>19</v>
+      </c>
+      <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C117" s="6">
-        <v>62</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>323</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C117" s="3">
+        <v>20</v>
+      </c>
+      <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C118" s="6">
-        <v>63</v>
+        <v>225</v>
+      </c>
+      <c r="C118" s="3">
+        <v>62</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C119" s="6">
-        <v>64</v>
+        <v>227</v>
+      </c>
+      <c r="C119" s="3">
+        <v>63</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C120" s="6">
-        <v>65</v>
+        <v>228</v>
+      </c>
+      <c r="C120" s="3">
+        <v>64</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>330</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C121" s="6">
-        <v>16</v>
-      </c>
-      <c r="D121" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="C121" s="3">
+        <v>65</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C122" s="6">
-        <v>17</v>
-      </c>
-      <c r="D122" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="C122" s="3">
+        <v>66</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C123" s="6">
-        <v>18</v>
+        <v>138</v>
+      </c>
+      <c r="C123" s="3">
+        <v>15</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C124" s="6">
-        <v>19</v>
+        <v>140</v>
+      </c>
+      <c r="C124" s="3">
+        <v>16</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C125" s="6">
-        <v>20</v>
+        <v>141</v>
+      </c>
+      <c r="C125" s="3">
+        <v>17</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C126" s="6">
-        <v>2</v>
+        <v>142</v>
+      </c>
+      <c r="C126" s="3">
+        <v>18</v>
       </c>
       <c r="D126" s="2"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C127" s="6">
-        <v>66</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>338</v>
+        <v>143</v>
+      </c>
+      <c r="C127" s="3">
+        <v>19</v>
+      </c>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" s="3">
+        <v>20</v>
+      </c>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C129" s="3">
+        <v>67</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/2nd term project/SLR table.xlsx
+++ b/2nd term project/SLR table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\master\Desktop\univ\대학 과제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\cau\3학년 1학기\컴파일러\CompilerAssignment\2nd term project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3871E592-1934-4203-A27C-ACABD9EEA216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0777BE9-28E1-43F7-9ACB-A52891143BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{45BC127C-883D-422A-80E1-05F054A0AF44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{45BC127C-883D-422A-80E1-05F054A0AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="First Follow table" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="348">
   <si>
     <t>FIRST / FOLLOW table</t>
   </si>
@@ -339,6 +338,21 @@
   </si>
   <si>
     <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>s</t>
     </r>
     <r>
@@ -348,11 +362,273 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>18</t>
     </r>
   </si>
   <si>
     <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>47</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>r</t>
     </r>
     <r>
@@ -363,7 +639,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>10</t>
+      <t>20</t>
     </r>
   </si>
   <si>
@@ -377,11 +653,144 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
+      <t>49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
       <t>19</t>
     </r>
   </si>
   <si>
     <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>s</t>
     </r>
     <r>
@@ -391,7 +800,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>20</t>
+      <t>63</t>
     </r>
   </si>
   <si>
@@ -406,7 +815,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>8</t>
+      <t>14</t>
     </r>
   </si>
   <si>
@@ -420,8 +829,905 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>22</t>
-    </r>
+      <t>64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <t>Goto</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>Closure</t>
+  </si>
+  <si>
+    <t>goto(0, VDECL)</t>
+  </si>
+  <si>
+    <t>{CODE -&gt; VDECL.CODE}</t>
+  </si>
+  <si>
+    <t>goto(0, vtype)</t>
+  </si>
+  <si>
+    <t>{VDECL -&gt; vtype.id semi}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE -&gt; VDECL CODE.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{CODE -&gt; FDECL.CODE}</t>
+  </si>
+  <si>
+    <t>{VDECL -&gt; vtype id.semi}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE -&gt; FDECL CODE.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>VDECL -&gt; vtype id semi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{ARG -&gt; vtype.id MOREARGS}</t>
+  </si>
+  <si>
+    <t>{ARG -&gt; vtype id.MOREARGS}</t>
+  </si>
+  <si>
+    <r>
+      <t>{ARG -&gt; vtype id.MOREARGS; MOREARGS -&gt; .comma vtype id MOREARGS; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOREARGS -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{BLOCK -&gt; STMT.BLOCK}</t>
+  </si>
+  <si>
+    <r>
+      <t>{BLOCK -&gt; STMT.BLOCK; BLOCK -&gt; .STMT BLOCK; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>STMT -&gt; VDECL.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; id.assign RHS semi}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if.lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while.lparen COND rparen lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>ARG -&gt; vtype id MOREARGS.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{MOREARGS -&gt; comma.vtype id MOREARGS}</t>
+  </si>
+  <si>
+    <t>{RETURN -&gt; return.FACTOR semi}</t>
+  </si>
+  <si>
+    <t>{RETURN -&gt; return.FACTOR semi; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; STMT BLOCK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; id assign.RHS semi}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; id assign.RHS semi; RHS -&gt; .EXPR; RHS -&gt; .literal; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen.COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen.COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; COND -&gt; .FACTOR comp FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen.COND rparen lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen.COND rparen lbrace BLOCK rbrace; COND -&gt; .FACTOR comp FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>{MOREARGS -&gt; comma vtype.id MOREARGS}</t>
+  </si>
+  <si>
+    <t>{RETURN -&gt; return FACTOR.semi}</t>
+  </si>
+  <si>
+    <t>{FACTOR -&gt; lparen.EXPR rparen}</t>
+  </si>
+  <si>
+    <t>{FACTOR -&gt; lparen.EXPR rparen; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>goto(24, id)</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>FACTOR -&gt; id.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>FACTOR -&gt; num.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; id assign RHS.semi}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>RHS -&gt; EXPR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>RHS -&gt; literal.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{EXPR -&gt; TERM.addsub EXPR; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>EXPR -&gt; TERM.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(26, FACTOR)</t>
+  </si>
+  <si>
+    <r>
+      <t>{TERM -&gt; FACTOR.multdiv TERM; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>TERM -&gt; FACTOR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(26, lparen)</t>
+  </si>
+  <si>
+    <t>goto(26, id)</t>
+  </si>
+  <si>
+    <t>goto(26, num)</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND.rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{COND -&gt; FACTOR.comp FACTOR}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen COND.rparen lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>goto(28, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(28, lparen)</t>
+  </si>
+  <si>
+    <t>goto(28, id)</t>
+  </si>
+  <si>
+    <t>goto(28, num)</t>
+  </si>
+  <si>
+    <t>{MOREARGS -&gt; comma vtype id.MOREARGS}</t>
+  </si>
+  <si>
+    <r>
+      <t>{MOREARGS -&gt; comma vtype id.MOREARGS; MOREARGS -&gt; .comma vtype id MOREARGS; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOREARGS -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>RETURN -&gt; return FACTOR semi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{FACTOR -&gt; lparen EXPR.rparen}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>STMT -&gt; id assign RHS semi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{EXPR -&gt; TERM addsub.EXPR}</t>
+  </si>
+  <si>
+    <t>{EXPR -&gt; TERM addsub.EXPR; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>{TERM -&gt; FACTOR multdiv.TERM}</t>
+  </si>
+  <si>
+    <t>{TERM -&gt; FACTOR multdiv.TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen.lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{COND -&gt; FACTOR comp.FACTOR}</t>
+  </si>
+  <si>
+    <t>{COND -&gt; FACTOR comp.FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen COND rparen.lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOREARGS -&gt; comma vtype id MOREARGS.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>FACTOR -&gt; lparen EXPR rparen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>EXPR -&gt; TERM addsub EXPR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>TERM -&gt; FACTOR multdiv TERM.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace.BLOCK rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{STMT -&gt; if lparen COND rparen lbrace.BLOCK rbrace else lbrace BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>COND -&gt; FACTOR comp FACTOR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen COND rparen lbrace.BLOCK rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{STMT -&gt; while lparen COND rparen lbrace.BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK.rbrace else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; while lparen COND rparen lbrace BLOCK.rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace.else lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>STMT -&gt; while lparen COND rparen lbrace BLOCK rbrace.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else.lbrace BLOCK rbrace}</t>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace.BLOCK rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace.BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
+    </r>
+  </si>
+  <si>
+    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK.rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>SLR closure table</t>
+  </si>
+  <si>
+    <t>goto(0, CODE)</t>
+  </si>
+  <si>
+    <t>goto(0, FDECL)</t>
+  </si>
+  <si>
+    <t>goto(2, CODE)</t>
+  </si>
+  <si>
+    <t>goto(2, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(2, FDECL)</t>
+  </si>
+  <si>
+    <t>goto(2, vtype)</t>
+  </si>
+  <si>
+    <t>goto(3, CODE)</t>
+  </si>
+  <si>
+    <t>goto(3, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(3, FDECL)</t>
+  </si>
+  <si>
+    <t>goto(3, vtype)</t>
+  </si>
+  <si>
+    <t>goto(4, id)</t>
+  </si>
+  <si>
+    <t>goto(7, semi)</t>
+  </si>
+  <si>
+    <t>goto(7, lparen)</t>
+  </si>
+  <si>
+    <t>goto(9, ARG)</t>
+  </si>
+  <si>
+    <t>goto(9, vtype)</t>
+  </si>
+  <si>
+    <t>goto(10, rparen)</t>
+  </si>
+  <si>
+    <t>goto(11, id)</t>
+  </si>
+  <si>
+    <t>goto(13, MOREARGS)</t>
+  </si>
+  <si>
+    <t>goto(13, comma)</t>
+  </si>
+  <si>
+    <t>goto(30, id)</t>
+  </si>
+  <si>
+    <t>goto(43, rparen)</t>
+  </si>
+  <si>
+    <t>goto(51, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(51, lparen)</t>
+  </si>
+  <si>
+    <t>goto(51, id)</t>
+  </si>
+  <si>
+    <t>goto(51, num)</t>
+  </si>
+  <si>
+    <t>goto(52, lbrace)</t>
+  </si>
+  <si>
+    <t>goto(61, rbrace)</t>
   </si>
   <si>
     <r>
@@ -434,7 +1740,77 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>24</t>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>52</t>
     </r>
   </si>
   <si>
@@ -449,7 +1825,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>11</t>
+      <t>26</t>
     </r>
   </si>
   <si>
@@ -463,7 +1839,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>26</t>
+      <t>54</t>
     </r>
   </si>
   <si>
@@ -477,8 +1853,469 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>27</t>
-    </r>
+      <t>65</t>
+    </r>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>{S -&gt; .CODE}</t>
+  </si>
+  <si>
+    <r>
+      <t>{S -&gt; .CODE; CODE -&gt; .VDECL CODE; CODE -&gt; .FDECL CODE; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; VDECL -&gt; .vtype id semi; FDECL -&gt; .vtype id lparen ARG rparen lbrace BLOCK RETURN rbrace}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>S -&gt; CODE.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{CODE -&gt; VDECL.CODE; CODE -&gt; .VDECL CODE; CODE -&gt; .FDECL CODE; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; VDECL -&gt; .vtype id semi; FDECL -&gt; .vtype id lparen ARG rparen lbrace BLOCK RETURN rbrace}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{CODE -&gt; FDECL.CODE; CODE -&gt; .VDECL CODE; CODE -&gt; .FDECL CODE; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>CODE -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; VDECL -&gt; .vtype id semi; FDECL -&gt; .vtype id lparen ARG rparen lbrace BLOCK RETURN rbrace}</t>
+    </r>
+  </si>
+  <si>
+    <t>{VDECL -&gt; vtype.id semi; FDECL -&gt; vtype.id lparen ARG rparen lbrace BLOCK RETURN rbrace}</t>
+  </si>
+  <si>
+    <t>{VDECL -&gt; vtype id.semi; FDECL -&gt; vtype id.lparen ARG rparen lbrace BLOCK RETURN rbrace}</t>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen.ARG rparen lbrace BLOCK RETURN rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{FDECL -&gt; vtype id lparen.ARG rparen lbrace BLOCK RETURN rbrace; ARG -&gt; .vtype id MOREARGS; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>ARG -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen ARG.rparen lbrace BLOCK RETURN rbrace}</t>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen ARG rparen.lbrace BLOCK RETURN rbrace}</t>
+  </si>
+  <si>
+    <t>goto(12, lbrace)</t>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen ARG rparen lbrace.BLOCK RETURN rbrace}</t>
+  </si>
+  <si>
+    <r>
+      <t>{FDECL -&gt; vtype id lparen ARG rparen lbrace.BLOCK RETURN rbrace; BLOCK -&gt; .STMT BLOCK; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>BLOCK -&gt; .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(14, BLOCK)</t>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen ARG rparen lbrace BLOCK.RETURN rbrace}</t>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen ARG rparen lbrace BLOCK.RETURN rbrace; RETURN -&gt; .return FACTOR semi}</t>
+  </si>
+  <si>
+    <t>goto(14, STMT)</t>
+  </si>
+  <si>
+    <t>goto(14, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(14, id)</t>
+  </si>
+  <si>
+    <t>goto(14, if)</t>
+  </si>
+  <si>
+    <t>goto(14, while)</t>
+  </si>
+  <si>
+    <t>goto(14, vtype)</t>
+  </si>
+  <si>
+    <t>goto(16, vtype)</t>
+  </si>
+  <si>
+    <t>goto(17, RETURN)</t>
+  </si>
+  <si>
+    <t>{FDECL -&gt; vtype id lparen ARG rparen lbrace BLOCK RETURN.rbrace}</t>
+  </si>
+  <si>
+    <t>goto(17, return)</t>
+  </si>
+  <si>
+    <t>goto(18, BLOCK)</t>
+  </si>
+  <si>
+    <t>goto(18, STMT)</t>
+  </si>
+  <si>
+    <t>goto(18, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(18, id)</t>
+  </si>
+  <si>
+    <t>goto(18, if)</t>
+  </si>
+  <si>
+    <t>goto(18, while)</t>
+  </si>
+  <si>
+    <t>goto(18, vtype)</t>
+  </si>
+  <si>
+    <t>goto(20, assign)</t>
+  </si>
+  <si>
+    <t>goto(21, lparen)</t>
+  </si>
+  <si>
+    <t>goto(22, lparen)</t>
+  </si>
+  <si>
+    <t>goto(23, id)</t>
+  </si>
+  <si>
+    <t>goto(25, rbrace)</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>FDECL -&gt; vtype id lparen ARG rparen lbrace BLOCK RETURN rbrace.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>goto(28, RHS)</t>
+  </si>
+  <si>
+    <t>goto(28, EXPR)</t>
+  </si>
+  <si>
+    <t>goto(28, literal)</t>
+  </si>
+  <si>
+    <t>goto(28, TERM)</t>
+  </si>
+  <si>
+    <t>goto(29, COND)</t>
+  </si>
+  <si>
+    <t>goto(29, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(29, lparen)</t>
+  </si>
+  <si>
+    <t>goto(29, id)</t>
+  </si>
+  <si>
+    <t>goto(29, num)</t>
+  </si>
+  <si>
+    <t>goto(30, COND)</t>
+  </si>
+  <si>
+    <t>goto(30, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(30, lparen)</t>
+  </si>
+  <si>
+    <t>goto(30, num)</t>
+  </si>
+  <si>
+    <t>goto(31, semi)</t>
+  </si>
+  <si>
+    <t>goto(32, MOREARGS)</t>
+  </si>
+  <si>
+    <t>goto(32, comma)</t>
+  </si>
+  <si>
+    <t>goto(34, semi)</t>
+  </si>
+  <si>
+    <t>goto(35, EXPR)</t>
+  </si>
+  <si>
+    <t>goto(35, TERM)</t>
+  </si>
+  <si>
+    <t>goto(35, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(35, lparen)</t>
+  </si>
+  <si>
+    <t>goto(35, id)</t>
+  </si>
+  <si>
+    <t>goto(35, num)</t>
+  </si>
+  <si>
+    <t>goto(38, semi)</t>
+  </si>
+  <si>
+    <t>goto(41, addsub)</t>
+  </si>
+  <si>
+    <t>goto(42, multdiv)</t>
+  </si>
+  <si>
+    <t>goto(44, comp)</t>
+  </si>
+  <si>
+    <t>goto(45, rparen)</t>
+  </si>
+  <si>
+    <t>goto(48, rparen)</t>
+  </si>
+  <si>
+    <t>goto(50, EXPR)</t>
+  </si>
+  <si>
+    <t>goto(50, TERM)</t>
+  </si>
+  <si>
+    <t>goto(50, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(50, lparen)</t>
+  </si>
+  <si>
+    <t>goto(50, id)</t>
+  </si>
+  <si>
+    <t>goto(50, num)</t>
+  </si>
+  <si>
+    <t>goto(51, TERM)</t>
+  </si>
+  <si>
+    <t>goto(53, FACTOR)</t>
+  </si>
+  <si>
+    <t>goto(53, lparen)</t>
+  </si>
+  <si>
+    <t>goto(53, id)</t>
+  </si>
+  <si>
+    <t>goto(53, num)</t>
+  </si>
+  <si>
+    <t>goto(54, lbrace)</t>
+  </si>
+  <si>
+    <t>goto(58, BLOCK)</t>
+  </si>
+  <si>
+    <t>goto(58, STMT)</t>
+  </si>
+  <si>
+    <t>goto(58, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(58, id)</t>
+  </si>
+  <si>
+    <t>goto(58, if)</t>
+  </si>
+  <si>
+    <t>goto(58, while)</t>
+  </si>
+  <si>
+    <t>goto(58, vtype)</t>
+  </si>
+  <si>
+    <t>goto(60, BLOCK)</t>
+  </si>
+  <si>
+    <t>goto(60, STMT)</t>
+  </si>
+  <si>
+    <t>goto(60, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(60, id)</t>
+  </si>
+  <si>
+    <t>goto(60, if)</t>
+  </si>
+  <si>
+    <t>goto(60, while)</t>
+  </si>
+  <si>
+    <t>goto(60, vtype)</t>
+  </si>
+  <si>
+    <t>goto(62, rbrace)</t>
+  </si>
+  <si>
+    <t>goto(63, else)</t>
+  </si>
+  <si>
+    <t>goto(65, lbrace)</t>
+  </si>
+  <si>
+    <t>goto(66, BLOCK)</t>
+  </si>
+  <si>
+    <t>goto(66, STMT)</t>
+  </si>
+  <si>
+    <t>goto(66, VDECL)</t>
+  </si>
+  <si>
+    <t>goto(66, id)</t>
+  </si>
+  <si>
+    <t>goto(66, if)</t>
+  </si>
+  <si>
+    <t>goto(66, while)</t>
+  </si>
+  <si>
+    <t>goto(66, vtype)</t>
+  </si>
+  <si>
+    <t>goto(67, rbrace)</t>
   </si>
   <si>
     <r>
@@ -491,22 +2328,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>5</t>
+      <t>14</t>
     </r>
   </si>
   <si>
@@ -520,7 +2342,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>29</t>
+      <t>16</t>
     </r>
   </si>
   <si>
@@ -534,7 +2356,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>30</t>
+      <t>23</t>
     </r>
   </si>
   <si>
@@ -548,7 +2370,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>33</t>
+      <t>21</t>
     </r>
   </si>
   <si>
@@ -562,37 +2384,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
+      <t>32</t>
     </r>
   </si>
   <si>
@@ -606,82 +2398,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>44</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>18</t>
+      <t>36</t>
     </r>
   </si>
   <si>
@@ -695,22 +2412,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>47</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>20</t>
+      <t>37</t>
     </r>
   </si>
   <si>
@@ -724,7 +2426,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>48</t>
+      <t>40</t>
     </r>
   </si>
   <si>
@@ -738,7 +2440,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>49</t>
+      <t>53</t>
     </r>
   </si>
   <si>
@@ -752,7 +2454,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>50</t>
+      <t>55</t>
     </r>
   </si>
   <si>
@@ -766,112 +2468,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>51</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>17</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>24</t>
+      <t>58</t>
     </r>
   </si>
   <si>
@@ -885,7 +2482,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>62</t>
+      <t>60</t>
     </r>
   </si>
   <si>
@@ -899,22 +2496,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>63</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>14</t>
+      <t>66</t>
     </r>
   </si>
   <si>
@@ -928,1570 +2510,7 @@
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>13</t>
-    </r>
-  </si>
-  <si>
-    <t>Goto</t>
-  </si>
-  <si>
-    <t>Kernel</t>
-  </si>
-  <si>
-    <t>Closure</t>
-  </si>
-  <si>
-    <t>goto(0, VDECL)</t>
-  </si>
-  <si>
-    <t>{CODE -&gt; VDECL.CODE}</t>
-  </si>
-  <si>
-    <r>
-      <t>{CODE -&gt; VDECL.CODE; CODE -&gt; .VDECL CODE; CODE -&gt; .FDECL CODE; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>CODE -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; VDECL -&gt; .vtype id semi; FDECL -&gt; .vtype id lparen ARG rparen BLOCK RETURN rbrace}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(0, vtype)</t>
-  </si>
-  <si>
-    <t>{VDECL -&gt; vtype.id semi}</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>CODE -&gt; VDECL CODE.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{CODE -&gt; FDECL.CODE}</t>
-  </si>
-  <si>
-    <r>
-      <t>{CODE -&gt; FDECL.CODE; CODE -&gt; .VDECL CODE; CODE -&gt; .FDECL CODE; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>CODE -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; VDECL -&gt; .vtype id semi; FDECL -&gt; .vtype id lparen ARG rparen BLOCK RETURN rbrace}</t>
-    </r>
-  </si>
-  <si>
-    <t>{VDECL -&gt; vtype.id semi; FDECL -&gt; vtype.id lparen ARG rparen BLOCK RETURN rbrace}</t>
-  </si>
-  <si>
-    <t>{VDECL -&gt; vtype id.semi}</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>CODE -&gt; FDECL CODE.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{VDECL -&gt; vtype id.semi; FDECL -&gt; vtype id.lparen ARG rparen BLOCK RETURN rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>VDECL -&gt; vtype id semi.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen.ARG rparen BLOCK RETURN rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{FDECL -&gt; vtype id lparen.ARG rparen BLOCK RETURN rbrace; ARG -&gt; .vtype id MOREARGS; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>ARG -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen ARG.rparen BLOCK RETURN rbrace}</t>
-  </si>
-  <si>
-    <t>{ARG -&gt; vtype.id MOREARGS}</t>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen ARG rparen.BLOCK RETURN rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{FDECL -&gt; vtype id lparen ARG rparen.BLOCK RETURN rbrace; BLOCK -&gt; .STMT BLOCK; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(12, id)</t>
-  </si>
-  <si>
-    <t>{ARG -&gt; vtype id.MOREARGS}</t>
-  </si>
-  <si>
-    <r>
-      <t>{ARG -&gt; vtype id.MOREARGS; MOREARGS -&gt; .comma vtype id MOREARGS; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>MOREARGS -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen ARG rparen BLOCK.RETURN rbrace}</t>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen ARG rparen BLOCK.RETURN rbrace; RETURN -&gt; .return FACTOR semi}</t>
-  </si>
-  <si>
-    <t>{BLOCK -&gt; STMT.BLOCK}</t>
-  </si>
-  <si>
-    <r>
-      <t>{BLOCK -&gt; STMT.BLOCK; BLOCK -&gt; .STMT BLOCK; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>STMT -&gt; VDECL.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{STMT -&gt; id.assign RHS semi}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if.lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while.lparen COND rparen lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>ARG -&gt; vtype id MOREARGS.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{MOREARGS -&gt; comma.vtype id MOREARGS}</t>
-  </si>
-  <si>
-    <t>{FDECL -&gt; vtype id lparen ARG rparen BLOCK RETURN.rbrace}</t>
-  </si>
-  <si>
-    <t>{RETURN -&gt; return.FACTOR semi}</t>
-  </si>
-  <si>
-    <t>{RETURN -&gt; return.FACTOR semi; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; STMT BLOCK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{STMT -&gt; id assign.RHS semi}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; id assign.RHS semi; RHS -&gt; .EXPR; RHS -&gt; .literal; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>goto(19, lparen)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen.COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen.COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; COND -&gt; .FACTOR comp FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen.COND rparen lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen.COND rparen lbrace BLOCK rbrace; COND -&gt; .FACTOR comp FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>goto(22, vtype)</t>
-  </si>
-  <si>
-    <t>{MOREARGS -&gt; comma vtype.id MOREARGS}</t>
-  </si>
-  <si>
-    <t>goto(23, rbrace)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>FDECL -&gt; vtype id lparen ARG rparen BLOCK RETURN rbrace.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(24, FACTOR)</t>
-  </si>
-  <si>
-    <t>{RETURN -&gt; return FACTOR.semi}</t>
-  </si>
-  <si>
-    <t>goto(24, lparen)</t>
-  </si>
-  <si>
-    <t>{FACTOR -&gt; lparen.EXPR rparen}</t>
-  </si>
-  <si>
-    <t>{FACTOR -&gt; lparen.EXPR rparen; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>goto(24, id)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>FACTOR -&gt; id.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(24, num)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>FACTOR -&gt; num.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(26, RHS)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; id assign RHS.semi}</t>
-  </si>
-  <si>
-    <t>goto(26, EXPR)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>RHS -&gt; EXPR.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(26, literal)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>RHS -&gt; literal.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(26, TERM)</t>
-  </si>
-  <si>
-    <r>
-      <t>{EXPR -&gt; TERM.addsub EXPR; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>EXPR -&gt; TERM.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(26, FACTOR)</t>
-  </si>
-  <si>
-    <r>
-      <t>{TERM -&gt; FACTOR.multdiv TERM; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>TERM -&gt; FACTOR.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(26, lparen)</t>
-  </si>
-  <si>
-    <t>goto(26, id)</t>
-  </si>
-  <si>
-    <t>goto(26, num)</t>
-  </si>
-  <si>
-    <t>goto(27, COND)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND.rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(27, FACTOR)</t>
-  </si>
-  <si>
-    <t>{COND -&gt; FACTOR.comp FACTOR}</t>
-  </si>
-  <si>
-    <t>goto(27, lparen)</t>
-  </si>
-  <si>
-    <t>goto(27, id)</t>
-  </si>
-  <si>
-    <t>goto(27, num)</t>
-  </si>
-  <si>
-    <t>goto(28, COND)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen COND.rparen lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(28, FACTOR)</t>
-  </si>
-  <si>
-    <t>goto(28, lparen)</t>
-  </si>
-  <si>
-    <t>goto(28, id)</t>
-  </si>
-  <si>
-    <t>goto(28, num)</t>
-  </si>
-  <si>
-    <t>{MOREARGS -&gt; comma vtype id.MOREARGS}</t>
-  </si>
-  <si>
-    <r>
-      <t>{MOREARGS -&gt; comma vtype id.MOREARGS; MOREARGS -&gt; .comma vtype id MOREARGS; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>MOREARGS -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>RETURN -&gt; return FACTOR semi.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{FACTOR -&gt; lparen EXPR.rparen}</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>STMT -&gt; id assign RHS semi.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{EXPR -&gt; TERM addsub.EXPR}</t>
-  </si>
-  <si>
-    <t>{EXPR -&gt; TERM addsub.EXPR; EXPR -&gt; .TERM addsub EXPR; EXPR -&gt; .TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>{TERM -&gt; FACTOR multdiv.TERM}</t>
-  </si>
-  <si>
-    <t>{TERM -&gt; FACTOR multdiv.TERM; TERM -&gt; .FACTOR multdiv TERM; TERM -&gt; .FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen.lbrace BLOCK rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>{COND -&gt; FACTOR comp.FACTOR}</t>
-  </si>
-  <si>
-    <t>{COND -&gt; FACTOR comp.FACTOR; FACTOR -&gt; .lparen EXPR rparen; FACTOR -&gt; .id; FACTOR -&gt; .num}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen COND rparen.lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>MOREARGS -&gt; comma vtype id MOREARGS.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>FACTOR -&gt; lparen EXPR rparen.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>EXPR -&gt; TERM addsub EXPR.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(48, TERM)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>TERM -&gt; FACTOR multdiv TERM.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(48, FACTOR)</t>
-  </si>
-  <si>
-    <t>goto(48, lparen)</t>
-  </si>
-  <si>
-    <t>goto(48, id)</t>
-  </si>
-  <si>
-    <t>goto(48, num)</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace.BLOCK rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{STMT -&gt; if lparen COND rparen lbrace.BLOCK rbrace else lbrace BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>COND -&gt; FACTOR comp FACTOR.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen COND rparen lbrace.BLOCK rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{STMT -&gt; while lparen COND rparen lbrace.BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
-    </r>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK.rbrace else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; while lparen COND rparen lbrace BLOCK.rbrace}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace.else lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>goto(60, rbrace)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>STMT -&gt; while lparen COND rparen lbrace BLOCK rbrace.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else.lbrace BLOCK rbrace}</t>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace.BLOCK rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace.BLOCK rbrace; BLOCK -&gt; .STMT BLOCK; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>BLOCK -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; STMT -&gt; .VDECL; STMT -&gt; .id assign RHS semi; STMT -&gt; .if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace; STMT -&gt; .while lparen COND rparen lbrace BLOCK rbrace; VDECL -&gt; .vtype id semi}</t>
-    </r>
-  </si>
-  <si>
-    <t>{STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK.rbrace}</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>STMT -&gt; if lparen COND rparen lbrace BLOCK rbrace else lbrace BLOCK rbrace.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>S'</t>
-  </si>
-  <si>
-    <t>SLR closure table</t>
-  </si>
-  <si>
-    <t>{S' -&gt; .CODE}</t>
-  </si>
-  <si>
-    <r>
-      <t>{S' -&gt; .CODE; CODE -&gt; .VDECL CODE; CODE -&gt; .FDECL CODE; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>CODE -&gt; .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>; VDECL -&gt; .vtype id semi; FDECL -&gt; .vtype id lparen ARG rparen BLOCK RETURN rbrace}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(0, CODE)</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>S' -&gt; CODE.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>goto(0, FDECL)</t>
-  </si>
-  <si>
-    <t>goto(2, CODE)</t>
-  </si>
-  <si>
-    <t>goto(2, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(2, FDECL)</t>
-  </si>
-  <si>
-    <t>goto(2, vtype)</t>
-  </si>
-  <si>
-    <t>goto(3, CODE)</t>
-  </si>
-  <si>
-    <t>goto(3, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(3, FDECL)</t>
-  </si>
-  <si>
-    <t>goto(3, vtype)</t>
-  </si>
-  <si>
-    <t>goto(4, id)</t>
-  </si>
-  <si>
-    <t>goto(7, semi)</t>
-  </si>
-  <si>
-    <t>goto(7, lparen)</t>
-  </si>
-  <si>
-    <t>goto(9, ARG)</t>
-  </si>
-  <si>
-    <t>goto(9, vtype)</t>
-  </si>
-  <si>
-    <t>goto(10, rparen)</t>
-  </si>
-  <si>
-    <t>goto(11, id)</t>
-  </si>
-  <si>
-    <t>goto(12, BLOCK)</t>
-  </si>
-  <si>
-    <t>goto(12, STMT)</t>
-  </si>
-  <si>
-    <t>goto(12, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(12, if)</t>
-  </si>
-  <si>
-    <t>goto(12, while)</t>
-  </si>
-  <si>
-    <t>goto(12, vtype)</t>
-  </si>
-  <si>
-    <t>goto(13, MOREARGS)</t>
-  </si>
-  <si>
-    <t>goto(13, comma)</t>
-  </si>
-  <si>
-    <t>goto(14, RETURN)</t>
-  </si>
-  <si>
-    <t>goto(14, return)</t>
-  </si>
-  <si>
-    <t>goto(15, BLOCK)</t>
-  </si>
-  <si>
-    <t>goto(15, STMT)</t>
-  </si>
-  <si>
-    <t>goto(15, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(15, id)</t>
-  </si>
-  <si>
-    <t>goto(15, if)</t>
-  </si>
-  <si>
-    <t>goto(15, while)</t>
-  </si>
-  <si>
-    <t>goto(15, vtype)</t>
-  </si>
-  <si>
-    <t>goto(17, assign)</t>
-  </si>
-  <si>
-    <t>goto(18, lparen)</t>
-  </si>
-  <si>
-    <t>goto(20, id)</t>
-  </si>
-  <si>
-    <t>goto(29, semi)</t>
-  </si>
-  <si>
-    <t>goto(30, id)</t>
-  </si>
-  <si>
-    <t>goto(32, semi)</t>
-  </si>
-  <si>
-    <t>goto(33, EXPR)</t>
-  </si>
-  <si>
-    <t>goto(33, TERM)</t>
-  </si>
-  <si>
-    <t>goto(33, FACTOR)</t>
-  </si>
-  <si>
-    <t>goto(33, lparen)</t>
-  </si>
-  <si>
-    <t>goto(33, id)</t>
-  </si>
-  <si>
-    <t>goto(33, num)</t>
-  </si>
-  <si>
-    <t>goto(36, semi)</t>
-  </si>
-  <si>
-    <t>goto(39, addsub)</t>
-  </si>
-  <si>
-    <t>goto(40, multdiv)</t>
-  </si>
-  <si>
-    <t>goto(41, rparen)</t>
-  </si>
-  <si>
-    <t>goto(42, comp)</t>
-  </si>
-  <si>
-    <t>goto(43, rparen)</t>
-  </si>
-  <si>
-    <t>goto(44, MOREARGS)</t>
-  </si>
-  <si>
-    <t>goto(44, comma)</t>
-  </si>
-  <si>
-    <t>goto(46, rparen)</t>
-  </si>
-  <si>
-    <t>goto(48, EXPR)</t>
-  </si>
-  <si>
-    <t>goto(49, TERM)</t>
-  </si>
-  <si>
-    <t>goto(49, FACTOR)</t>
-  </si>
-  <si>
-    <t>goto(49, lparen)</t>
-  </si>
-  <si>
-    <t>goto(49, id)</t>
-  </si>
-  <si>
-    <t>goto(49, num)</t>
-  </si>
-  <si>
-    <t>goto(50, lbrace)</t>
-  </si>
-  <si>
-    <t>goto(51, FACTOR)</t>
-  </si>
-  <si>
-    <t>goto(51, lparen)</t>
-  </si>
-  <si>
-    <t>goto(51, id)</t>
-  </si>
-  <si>
-    <t>goto(51, num)</t>
-  </si>
-  <si>
-    <t>goto(52, lbrace)</t>
-  </si>
-  <si>
-    <t>goto(57, BLOCK)</t>
-  </si>
-  <si>
-    <t>goto(57, STMT)</t>
-  </si>
-  <si>
-    <t>goto(57, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(57, id)</t>
-  </si>
-  <si>
-    <t>goto(57, if)</t>
-  </si>
-  <si>
-    <t>goto(57, while)</t>
-  </si>
-  <si>
-    <t>goto(57, vtype)</t>
-  </si>
-  <si>
-    <t>goto(59, BLOCK)</t>
-  </si>
-  <si>
-    <t>goto(59, STMT)</t>
-  </si>
-  <si>
-    <t>goto(59, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(59, id)</t>
-  </si>
-  <si>
-    <t>goto(59, if)</t>
-  </si>
-  <si>
-    <t>goto(59, while)</t>
-  </si>
-  <si>
-    <t>goto(59, vtype)</t>
-  </si>
-  <si>
-    <t>goto(61, rbrace)</t>
-  </si>
-  <si>
-    <t>goto(62, else)</t>
-  </si>
-  <si>
-    <t>goto(64, lbrace)</t>
-  </si>
-  <si>
-    <t>goto(65, BLOCK)</t>
-  </si>
-  <si>
-    <t>goto(65, STMT)</t>
-  </si>
-  <si>
-    <t>goto(65, VDECL)</t>
-  </si>
-  <si>
-    <t>goto(65, id)</t>
-  </si>
-  <si>
-    <t>goto(65, if)</t>
-  </si>
-  <si>
-    <t>goto(65, while)</t>
-  </si>
-  <si>
-    <t>goto(65, vtype)</t>
-  </si>
-  <si>
-    <t>goto(66, rbrace)</t>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>17</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>38</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>52</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>54</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>57</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>59</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>67</t>
+      <t>68</t>
     </r>
   </si>
 </sst>
@@ -3002,24 +3021,24 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.19921875" customWidth="1"/>
-    <col min="2" max="2" width="25.8984375" customWidth="1"/>
-    <col min="3" max="3" width="44.19921875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="44.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3030,9 +3049,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -3041,7 +3060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3052,7 +3071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -3063,7 +3082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3074,7 +3093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3085,7 +3104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3096,7 +3115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -3107,7 +3126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3118,7 +3137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -3129,7 +3148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -3140,7 +3159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -3151,7 +3170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -3162,7 +3181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -3173,7 +3192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -3196,45 +3215,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5EA1F4-4D38-429F-A714-9FE5AF2A8F5B}">
-  <dimension ref="A1:AG71"/>
+  <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -3269,9 +3288,10 @@
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
-      <c r="AG1" s="7"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="7"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -3310,9 +3330,10 @@
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -3330,19 +3351,19 @@
         <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>51</v>
@@ -3372,7 +3393,7 @@
         <v>59</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>4</v>
@@ -3410,13 +3431,16 @@
       <c r="AG3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3457,8 +3481,9 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH4" s="2"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3496,13 +3521,14 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH5" s="2"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3543,13 +3569,14 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH6" s="2"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3590,14 +3617,15 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH7" s="2"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3629,8 +3657,9 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH8" s="2"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3668,8 +3697,9 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH9" s="2"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3707,8 +3737,9 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH10" s="2"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -3748,32 +3779,33 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH11" s="2"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3781,10 +3813,10 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -3799,19 +3831,20 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH12" s="2"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3842,8 +3875,9 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH13" s="2"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -3881,8 +3915,9 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH14" s="2"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -3920,63 +3955,49 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH15" s="2"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>333</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="3">
-        <v>16</v>
-      </c>
+      <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="3">
-        <v>14</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>15</v>
-      </c>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH16" s="2"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -3985,13 +4006,13 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -4009,7 +4030,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -4018,135 +4039,128 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH17" s="2"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="W18" s="3">
+        <v>19</v>
+      </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="AA18" s="3">
+        <v>17</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>18</v>
+      </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH18" s="2"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>333</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="F19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="3">
-        <v>16</v>
-      </c>
+      <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="3">
-        <v>25</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>15</v>
-      </c>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH19" s="2"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -4161,8 +4175,9 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH20" s="2"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -4173,9 +4188,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -4185,7 +4198,9 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="S21" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -4200,70 +4215,100 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH21" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="S22" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="W22" s="3">
+        <v>19</v>
+      </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
+      <c r="AA22" s="3">
+        <v>27</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>18</v>
+      </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH22" s="2"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="S23" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -4278,22 +4323,23 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH23" s="2"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -4317,18 +4363,19 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH24" s="2"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="E25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -4356,17 +4403,18 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH25" s="2"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -4395,19 +4443,20 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH26" s="2"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>334</v>
-      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -4434,19 +4483,18 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH27" s="2"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>338</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -4458,9 +4506,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2" t="s">
-        <v>335</v>
-      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -4475,12 +4521,11 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
-      <c r="AF28" s="3">
-        <v>32</v>
-      </c>
+      <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH28" s="2"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -4489,10 +4534,10 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -4503,9 +4548,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -4520,18 +4563,19 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH29" s="2"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4541,13 +4585,11 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>336</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -4560,35 +4602,28 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
-      <c r="AC30" s="3">
-        <v>36</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>37</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>39</v>
-      </c>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
       <c r="AF30" s="3">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG30" s="2"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH30" s="2"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -4597,11 +4632,11 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2" t="s">
-        <v>335</v>
-      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
+      <c r="S31" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -4614,24 +4649,21 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
-      <c r="AF31" s="3">
-        <v>42</v>
-      </c>
-      <c r="AG31" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4641,11 +4673,13 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -4658,26 +4692,33 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
+      <c r="AC32" s="3">
+        <v>38</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>39</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>41</v>
+      </c>
       <c r="AF32" s="3">
         <v>42</v>
       </c>
-      <c r="AG32" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -4689,7 +4730,9 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
+      <c r="Q33" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -4704,19 +4747,26 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AF33" s="3">
+        <v>44</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>43</v>
+      </c>
+      <c r="AH33" s="2"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>339</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -4728,7 +4778,9 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
+      <c r="Q34" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -4743,18 +4795,23 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AF34" s="3">
+        <v>44</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>45</v>
+      </c>
+      <c r="AH34" s="2"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4770,9 +4827,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -4786,21 +4841,24 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH35" s="2"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>337</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -4817,7 +4875,9 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="Z36" s="3">
+        <v>46</v>
+      </c>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
@@ -4825,19 +4885,18 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH36" s="2"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>33</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -4849,12 +4908,12 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2" t="s">
-        <v>335</v>
-      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="T37" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
@@ -4864,30 +4923,23 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-      <c r="AD37" s="3">
-        <v>46</v>
-      </c>
-      <c r="AE37" s="3">
-        <v>39</v>
-      </c>
-      <c r="AF37" s="3">
-        <v>40</v>
-      </c>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH37" s="2"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -4896,16 +4948,10 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -4921,20 +4967,21 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH38" s="2"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="C39" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -4943,16 +4990,12 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -4964,22 +5007,31 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
+      <c r="AD39" s="3">
+        <v>48</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>41</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>42</v>
+      </c>
       <c r="AG39" s="2"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH39" s="2"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -4988,10 +5040,16 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="O40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
+      <c r="R40" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -5007,18 +5065,21 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH40" s="2"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -5027,10 +5088,16 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="O41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
+      <c r="R41" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -5046,15 +5113,16 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH41" s="2"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -5085,20 +5153,19 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH42" s="2"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -5107,9 +5174,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -5128,20 +5193,19 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH43" s="2"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -5150,12 +5214,8 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -5173,17 +5233,20 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH44" s="2"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -5193,7 +5256,9 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -5212,16 +5277,21 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH45" s="2"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -5230,12 +5300,14 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="O46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -5251,8 +5323,9 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH46" s="2"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -5261,7 +5334,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -5290,8 +5363,9 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH47" s="2"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -5299,13 +5373,9 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -5315,7 +5385,9 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
+      <c r="R48" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -5323,9 +5395,7 @@
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
-      <c r="Z48" s="3">
-        <v>53</v>
-      </c>
+      <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
@@ -5333,8 +5403,9 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH48" s="2"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45</v>
       </c>
@@ -5342,10 +5413,10 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="F49" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -5372,8 +5443,9 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH49" s="2"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>46</v>
       </c>
@@ -5382,7 +5454,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>340</v>
+        <v>71</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -5411,41 +5483,32 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH50" s="2"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>47</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -5460,20 +5523,19 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH51" s="2"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -5484,9 +5546,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="2" t="s">
-        <v>335</v>
-      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
@@ -5499,45 +5559,46 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="3">
-        <v>55</v>
-      </c>
-      <c r="AE52" s="3">
-        <v>39</v>
-      </c>
-      <c r="AF52" s="3">
-        <v>40</v>
-      </c>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH52" s="2"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>49</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C53" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+      <c r="M53" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="2" t="s">
-        <v>335</v>
-      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
+      <c r="S53" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -5549,36 +5610,37 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
-      <c r="AE53" s="3">
-        <v>56</v>
-      </c>
-      <c r="AF53" s="3">
-        <v>40</v>
-      </c>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH53" s="2"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
+      <c r="Q54" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
@@ -5591,22 +5653,29 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
+      <c r="AD54" s="3">
+        <v>56</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>41</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>42</v>
+      </c>
       <c r="AG54" s="2"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH54" s="2"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>51</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -5620,7 +5689,7 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -5635,13 +5704,16 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
+      <c r="AE55" s="3">
+        <v>57</v>
+      </c>
       <c r="AF55" s="3">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AG55" s="2"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH55" s="2"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>52</v>
       </c>
@@ -5650,13 +5722,13 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -5679,18 +5751,21 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH56" s="2"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>53</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="E57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -5701,7 +5776,9 @@
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
+      <c r="Q57" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
@@ -5716,23 +5793,24 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
-      <c r="AF57" s="2"/>
+      <c r="AF57" s="3">
+        <v>59</v>
+      </c>
       <c r="AG57" s="2"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH57" s="2"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>54</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -5740,16 +5818,10 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
-      <c r="O58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -5765,19 +5837,20 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH58" s="2"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>55</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -5787,10 +5860,16 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
+      <c r="O59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
+      <c r="R59" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
@@ -5806,19 +5885,20 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH59" s="2"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5828,9 +5908,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
-      <c r="O60" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -5849,196 +5927,205 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH60" s="2"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>57</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="F61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="O61" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="3">
-        <v>16</v>
-      </c>
+      <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="3">
-        <v>60</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>15</v>
-      </c>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH61" s="2"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>58</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="K62" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+      <c r="M62" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
+      <c r="S62" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
+      <c r="W62" s="3">
+        <v>19</v>
+      </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
+      <c r="AA62" s="3">
+        <v>61</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>18</v>
+      </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH62" s="2"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>59</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>333</v>
-      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="F63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-      <c r="W63" s="3">
-        <v>16</v>
-      </c>
+      <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
-      <c r="AA63" s="3">
-        <v>61</v>
-      </c>
-      <c r="AB63" s="3">
-        <v>15</v>
-      </c>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH63" s="2"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>60</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="K64" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
+      <c r="M64" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
+      <c r="S64" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
+      <c r="W64" s="3">
+        <v>19</v>
+      </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
+      <c r="AA64" s="3">
+        <v>62</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>18</v>
+      </c>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH64" s="2"/>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>61</v>
       </c>
@@ -6047,10 +6134,10 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -6076,8 +6163,9 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH65" s="2"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>62</v>
       </c>
@@ -6087,13 +6175,13 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -6115,41 +6203,32 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH66" s="2"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>63</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="L67" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -6164,31 +6243,42 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH67" s="2"/>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>64</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2" t="s">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+      <c r="M68" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
+      <c r="S68" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -6203,135 +6293,128 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH68" s="2"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>65</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>333</v>
-      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-      <c r="W69" s="3">
-        <v>16</v>
-      </c>
+      <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
-      <c r="AA69" s="3">
-        <v>66</v>
-      </c>
-      <c r="AB69" s="3">
-        <v>15</v>
-      </c>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH69" s="2"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>66</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="K70" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
+      <c r="M70" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
+      <c r="S70" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
+      <c r="W70" s="3">
+        <v>19</v>
+      </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-      <c r="AB70" s="2"/>
+      <c r="AA70" s="3">
+        <v>67</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>18</v>
+      </c>
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH70" s="2"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>67</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
@@ -6346,13 +6429,64 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
+      <c r="AH71" s="2"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>68</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:T2"/>
-    <mergeCell ref="U2:AG2"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="U2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6361,1698 +6495,1712 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2598F4-E9DE-4D83-B27D-E5412A584D3D}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="C16" s="3">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C17" s="3">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="C18" s="3">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="C19" s="3">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C20" s="3">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="C21" s="3">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C22" s="3">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="C23" s="3">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C24" s="3">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="C26" s="3">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C27" s="3">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C28" s="3">
         <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C29" s="3">
         <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C30" s="3">
         <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C31" s="3">
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C32" s="3">
         <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C33" s="3">
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="C34" s="3">
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C35" s="3">
-        <v>15</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C36" s="3">
-        <v>16</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C37" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C38" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C39" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C40" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C41" s="3">
-        <v>26</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="C42" s="3">
-        <v>27</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C43" s="3">
         <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C44" s="3">
         <v>29</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C45" s="3">
         <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C46" s="3">
         <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" s="3">
         <v>32</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="C48" s="3">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C49" s="3">
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C50" s="3">
         <v>35</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C51" s="3">
         <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C52" s="3">
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C53" s="3">
         <v>38</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C54" s="3">
         <v>39</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3">
         <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C56" s="3">
-        <v>33</v>
-      </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C57" s="3">
-        <v>34</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C58" s="3">
         <v>35</v>
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="C59" s="3">
-        <v>41</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C60" s="3">
-        <v>42</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C61" s="3">
-        <v>33</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C62" s="3">
-        <v>34</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C63" s="3">
         <v>35</v>
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="C64" s="3">
-        <v>43</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C65" s="3">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C66" s="3">
-        <v>33</v>
-      </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C67" s="3">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C68" s="3">
         <v>35</v>
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C69" s="3">
+        <v>36</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="3">
+        <v>37</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="3">
         <v>8</v>
       </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="3">
-        <v>44</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="3">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C72" s="3">
         <v>46</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="C73" s="3">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C74" s="3">
-        <v>40</v>
-      </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="3">
+        <v>48</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="3">
+        <v>41</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="3">
+        <v>42</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="3">
+        <v>35</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="3">
+        <v>36</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="3">
+        <v>37</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="3">
+        <v>49</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="3">
-        <v>33</v>
-      </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="C82" s="3">
+        <v>50</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="3">
+        <v>51</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="3">
-        <v>34</v>
-      </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B77" s="2" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="3">
+        <v>52</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="3">
-        <v>35</v>
-      </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C78" s="3">
-        <v>47</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="3">
-        <v>48</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C80" s="3">
-        <v>49</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="3">
-        <v>50</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="3">
-        <v>51</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C83" s="3">
-        <v>52</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C84" s="3">
+      <c r="C85" s="3">
         <v>53</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C85" s="3">
-        <v>22</v>
-      </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D85" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C86" s="3">
         <v>54</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="C87" s="3">
         <v>55</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="3">
+        <v>56</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="3">
+        <v>41</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C90" s="3">
+        <v>42</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="3">
+        <v>35</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="3">
+        <v>36</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="3">
+        <v>37</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="3">
+        <v>57</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88" s="3">
-        <v>39</v>
-      </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="2" t="s">
+      <c r="B95" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" s="3">
+        <v>42</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="3">
+        <v>35</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" s="3">
-        <v>40</v>
-      </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="3">
+        <v>36</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" s="3">
-        <v>33</v>
-      </c>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="2" t="s">
+      <c r="B98" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="3">
+        <v>37</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C91" s="3">
-        <v>34</v>
-      </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C92" s="3">
-        <v>35</v>
-      </c>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C93" s="3">
-        <v>56</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C94" s="3">
-        <v>40</v>
-      </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C95" s="3">
-        <v>33</v>
-      </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C96" s="3">
-        <v>34</v>
-      </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" s="3">
-        <v>35</v>
-      </c>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C98" s="3">
-        <v>57</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="B99" s="2" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="C99" s="3">
         <v>58</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C100" s="3">
-        <v>33</v>
-      </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C101" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C102" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="C103" s="3">
-        <v>59</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="C104" s="3">
         <v>60</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="C105" s="3">
-        <v>15</v>
-      </c>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C106" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C107" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C108" s="3">
+        <v>20</v>
+      </c>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="3">
+        <v>21</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="3">
+        <v>22</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="3">
+        <v>23</v>
+      </c>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" s="3">
+        <v>62</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="3">
         <v>18</v>
       </c>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C109" s="3">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="3">
         <v>19</v>
       </c>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C110" s="3">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="3">
         <v>20</v>
       </c>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" s="3">
-        <v>61</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C112" s="3">
-        <v>15</v>
-      </c>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C113" s="3">
-        <v>16</v>
-      </c>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C114" s="3">
-        <v>17</v>
-      </c>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C115" s="3">
-        <v>18</v>
-      </c>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C116" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C117" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C118" s="3">
-        <v>62</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>319</v>
+        <v>217</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="C119" s="3">
         <v>63</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="C120" s="3">
         <v>64</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="C121" s="3">
         <v>65</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="C122" s="3">
         <v>66</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="C123" s="3">
-        <v>15</v>
-      </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C124" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C125" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C126" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C127" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C128" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="C129" s="3">
-        <v>67</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>232</v>
+        <v>23</v>
+      </c>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" s="3">
+        <v>68</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
